--- a/app/Casos_resultados_graph_4o.xlsx
+++ b/app/Casos_resultados_graph_4o.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\agents\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8EDE1F-4445-4C9C-A6A8-52FD37E4181C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4B8D61-5663-4E2C-AD78-11101710F56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,17 +17,17 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$77</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="167">
   <si>
     <t>Asunto</t>
   </si>
@@ -206,10 +206,7 @@
 and accessible at https://www.sgs.com/en/terms-and-conditions</t>
   </si>
   <si>
-    <t>Estado de facturas</t>
-  </si>
-  <si>
-    <t>no</t>
+    <t>Otras consultas</t>
   </si>
   <si>
     <t>retenciones YPF SA</t>
@@ -376,6 +373,12 @@
 generated data. Specializing in; Security, archiving and compliance.</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Desconocida</t>
+  </si>
+  <si>
     <t>Files attached to a message triggered a policy</t>
   </si>
   <si>
@@ -410,9 +413,6 @@
 [https://static-uk.mimecast.com/mimecast/resources/images/notifications/powered-mimecast-logo-278x28.png]
 © 2003 - 2025 Mimecast Services Limited and affiliates.
                                                            </t>
-  </si>
-  <si>
-    <t>Otras consultas</t>
   </si>
   <si>
     <t>Pedido Devolucion Retenciones 30718482417 The Development Initiative SRL</t>
@@ -831,15 +831,15 @@
 </t>
   </si>
   <si>
+    <t>Estado de facturas</t>
+  </si>
+  <si>
     <t>YBOT - Consulta Facturación CUIT - 30714535435</t>
   </si>
   <si>
     <t>Hola, mi correo electrónico es: horaciomuller@mag-servicios.com.
 Mi consulta: Cómo puedo presentar una factura de una Orden de Compra ya generada
 ¡Saludos![http://url2118.actionmail.app/wf/open?upn=u001.otyO9U6HbGz0cVEZrQ4I-2FzQBbfSufCjXJvXpbnm7Uls6vBoxQ1a44hF6oC5TPh3Kd5bdzyp6QUdeRTfXyPRQmxrupBEne35qZbi1MC6D-2Bi5owac8hzq3-2BwRyPE-2BmOczYqE36gYw5766Pf808dvS6wWyvST2eaBE9MfGstRO2ZzkGVkmrKt-2FMQMNVNcDVK2NXiUOuwCXaqbhE9T91LDcK8mIK-2Bg-2B6Uu9CJhu6V80kICw-3D]</t>
-  </si>
-  <si>
-    <t>Presentación de facturas</t>
   </si>
   <si>
     <t>Hola, mi correo electrónico es: horaciomuller@mag-servicios.com.
@@ -1822,6 +1822,9 @@
 Argentina.</t>
   </si>
   <si>
+    <t>Presentación de facturas</t>
+  </si>
+  <si>
     <t> 
 Logo
 [https://static-uk.mimecast.com/mimecast/resources/images/notifications/mimecast-logo-254x120.png]
@@ -2141,9 +2144,6 @@
 &gt; or accurate. All information is subject to change without prior notice.</t>
   </si>
   <si>
-    <t>Impresión de NC/ND</t>
-  </si>
-  <si>
     <t>Auto: (was: YPF-CAP:0541004259)</t>
   </si>
   <si>
@@ -2833,6 +2833,9 @@
 en www.ypf.com .
 Documento: YPF-Privado
 </t>
+  </si>
+  <si>
+    <t>Salientes YPF</t>
   </si>
   <si>
     <t>Saliente YPF</t>
@@ -2921,9 +2924,6 @@
 complete or accurate. All information is subject to change without prior notice.</t>
   </si>
   <si>
-    <t>Pedido de devolución de retenciones - CUIT : 30717859177 BRILLOLUX DE TRES ARROYOS S.R.L</t>
-  </si>
-  <si>
     <t>Pedido de Devolución de Retenciones - 02-01-2025</t>
   </si>
   <si>
@@ -2933,6 +2933,215 @@
 Adjuntamos:
  * Nota de Pedido de Devolución de Retenciones - 30504536706 CONTRERAS HERMANOS
    S A I C I F A G Y M –
+ </t>
+  </si>
+  <si>
+    <t>Solicitud reintegro retención IVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimados, buenas tardes!
+En el día de la fecha recibimos una retención de IVA . Solicitamos el reintegro
+de la misma, dado que estamos excluidos en dicho impuesto.
+Adjunto retención y certificado de exclusión.
+Aguardo indicaciones para finalizar la gestión 
+Desde ya muchas gracias!
+Atte
+Logo [https://i.imgur.com/kPJTULL.png] [http://www.gsb.com.ar/]
+Agostina Torlaschi
+Administrativa Neuquen - Centenario
+[https://i.imgur.com/o7QNfUW.png] +54 9 299
+4116664  [https://i.imgur.com/OhtrSGY.png] recepcionnqn@gsb.com.ar
+[atencionalclientenqn@gsb.com.ar]
+[https://i.imgur.com/zl869pv.png] www.gsb.com.ar [http://www.gsb.com.ar/]
+[https://i.imgur.com/OAz5K4p.png] Calle 120 Nº453 Manzana 6A
+PIN Centenario - Neuquén
+</t>
+  </si>
+  <si>
+    <t>Me encontraré fuera de oficina desde el 13 al 17 de Enero (inclusive).
+Por temas urgentes por favor contactarse con  Ortego
+Rocio (rocio.ortego@ypf.com) o Ferrada Marina (marina.ferrada@ypf.com)
+Saludos.
+Florencia Ojeda.
+AVISO LEGAL: Esta información es privada y confidencial y está dirigida
+únicamente a su destinatario. Si usted no es el destinatario original de este
+mensaje y por este medio pudo acceder a dicha información se le pide gentilmente
+que elimine el presente mensaje. La distribución o copia de este mensaje está
+estrictamente prohibida. Esta comunicación es sólo para propósitos de
+información y no debe ser considerada como una propuesta, aceptación ni como una
+declaración de voluntad de parte del personal de YPF S.A. La transmisión de
+mensajes por medio del servicio de mensajería electrónica corporativa no está
+exenta de errores. Por consiguiente, no manifestamos que esta información sea
+completa o precisa. Toda información está sujeta a alterarse sin previo aviso.
+Ante cualquier incumplimiento al Código de Ética y Conducta de YPF, políticas
+corporativas asociadas y/o la ley se encuentra disponible la Línea Ética
+Telefónica: 0800 – 444 – 7722 y la Línea Ética WEB www.lineadedenuncias.com.ar
+en www.ypf.com .</t>
+  </si>
+  <si>
+    <t>Respuesta automática: YPF-CAP:0557001516</t>
+  </si>
+  <si>
+    <t>Pedido de devolución de retenciones - 30-71653806-7 Técnicas Reunidas Argentina S.A.U.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buenas tardes estimados Sres. YPF,
+Adjunto pedido de devolución de retenciones mal practicadas en el último pago
+generado el día 15/01/2025.
+Por favor tenga a bien responder al mismo indicando la aceptación del
+pedido de devolución de retenciones.
+Muchas gracias.
+Saludos.
+Leonardo García 
+Administración y Finanzas - Argentina
+Técnicas Reunidas Argentina S.A.U. 
+Juan B. Alberdi 431 - 9º Piso, Of.º 6 (906)
+(C1636) Olivos, Provincia de Buenos Aires 
+[cid:0fd9dddf-0b7c-44d2-b6e8-da6e4bff59bb]
+Antes de imprimir este mensaje, asegúrese de que es necesario. La conservación
+del medio ambiente está en nuestra mano.
+Please, do not print this message unless it is necessary. The conservation of
+our environment is in our hands.
+________________________________________________________________
+La información contenida o adjunta a este correo electrónico (el "mensaje") es
+confidencial y únicamente podrá ser utilizada por las personas o entidades a las
+que el mensaje se encuentra dirigido y para el fin que se detalla o infiere del
+mismo. Cualquier utilización, divulgación, reproducción y distribución, total o
+parcial, del mensaje distinta de la que se detallara anteriormente se encuentra
+prohibida.
+El mensaje refleja las opiniones de su emisor y no necesariamente representa al
+Grupo Técnicas Reunidas. La información contenida o adjunta en el mensaje puede
+no ser completa, veraz o libre de errores, por lo que el Grupo Técnicas Reunidas
+no asume responsabilidad por la interpretación que se haga de la misma.
+Si usted ha recibido el mensaje por error por favor comunique de este error al
+transmisor del mismo y elimínelo de su sistema. El Grupo Técnicas Reunidas toma
+medidas activas para prevenir la distribución de virus informáticos. Sin embargo
+el Grupo Técnicas Reunidas no asume responsabilidad alguna al respecto ni
+garantiza que el presente mensaje se encuentre libre de dichos virus
+informáticos.
+En cumplimiento de la normativa de Protección de Datos, el Grupo Técnicas
+Reunidas realiza el tratamiento de sus datos con la finalidad de mantener la
+relación adquirida con usted e informarle de las actividades y servicios de la
+entidad. La base legitimadora del tratamiento es el mantenimiento de la relación
+jurídica y el interés legítimo. Puede ejercitar sus derechos a acceder,
+rectificar, suprimir los datos, limitar su tratamiento, oponerse al tratamiento,
+y a ejercer su derecho a la portabilidad en cualquier momento, enviando un
+correo a privacy@tecnicasreunidas.es
+-----------------------------------------------------------------------
+The information contained in or attached to this e-mail (the "message") is
+confidential and may only be used by the people or entities to which it is
+addressed and for the purpose specified or inferred therein. Any total or
+partial use, dissemination or reproduction of the message other than that
+detailed above is prohibited.
+The message reflects the opinions of its writer and does not necessarily
+represent Técnicas Reunidas Group. The information contained in or attached to
+the message may not be complete, true or free of errors, therefore Técnicas
+Reunidas Group accepts no liability for any interpretation that may be made of
+it.
+If you have received this message by mistake, please inform the sender and
+delete it from your system. Técnicas Reunidas Group takes active measures to
+prevent the distribution of computer viruses; nevertheless, it assumes no
+liability for this nor guarantees that this message is free of such elements.
+In compliance with current legislation on personal data protection, Técnicas
+Reunidas Group performs the processing of your data in order to maintain the
+relationship acquired with you and inform you of the activities and services of
+the entity. The legal basis of the treatment is the maintenance of the legal
+relationship and the legitimate interest. You can exercise your rights to
+access, rectify, delete the data, limit your treatment, oppose the treatment,
+and exercise your right to portability at any time, by sending an email to
+privacy@tecnicasreunidas.es
+</t>
+  </si>
+  <si>
+    <t>FACTURA RECHAZADA</t>
+  </si>
+  <si>
+    <t>Buenas tardes
+No encuentro motivo de fc rechazada
+Adjunto remito
+Aguardo respuesta
+--
+Ivana Miranda
+FERRETERIA DON ROBERTO
+de Eduardo Pienzi
+Casa Central - Avda. Casey 702
+Tel. 03462 428814/420667
+Venado Tuerto - Santa Fe -</t>
+  </si>
+  <si>
+    <t>RV: Factura rechazada: 0003A00000012</t>
+  </si>
+  <si>
+    <t>Estimados buenas tardes.
+Solicitamos nos indiquen cual son los motivos de rechazo y como gestinar para
+poder cargarla nuevamente.
+Si hace falta documentación, se explique cuál y a donde enviarla.
+Quedamos atentos a la respuesta.
+Gracias
+Nerina Fantasia
+De: Esker Facturas de Proveedor [mailto:notification@eskerondemand.com]
+Enviado el: miércoles, 15 de enero de 2025 16:48
+Para: info@electrofantasiasrl.com.ar
+Asunto: Factura rechazada: 0003A00000012
+Rechazo de factura
+YPF
+Estimado proveedor,
+Les informamos que se ha rechazado la factura siguiente:
+Nombre del proveedor:
+ELECTROMECANICA FANTASIA SRL
+CUIT Proveedor:
+30707998756
+Número de factura:
+0003A00000012
+Fecha de factura:
+1/3/2025
+Importe total:
+9,682,377.09
+Motivo del rechazo:
+Update your tax/banking situation by sending email
+Comentario:
+Las consultas deben canalizarse a través del Call Center de Atención a
+Proveedores (0810-122-9681) o vía mail a facturacion@proveedoresypf.com
+Saludos cordiales,
+Registración y Control YPF
+ </t>
+  </si>
+  <si>
+    <t>Tu buzón de correo de archivo está lleno.</t>
+  </si>
+  <si>
+    <t>Tu buzón de correo de archivo está lleno.
+100 GB 100 GB
+Ya no puede mover los mensajes a su buzón de archivo. Para hacer espacio en el
+buzón de correo de archivo, elimine los elementos que no necesite y vacíe la
+carpeta Elementos eliminados.
+Más información sobre el buzón de archivo
+[https://go.microsoft.com/fwlink/?linkid=2122745]y Límite de almacenamiento
+[https://go.microsoft.com/fwlink/?linkid=2122659].
+Dirección de buzón:
+facturacion@proveedoresypf.com
+Tipo de buzón:
+Archive</t>
+  </si>
+  <si>
+    <t>Detalle de pagos - GALZZI SRL 30708460687</t>
+  </si>
+  <si>
+    <t>Estimados,
+Estamos imposibilitados de acceder a la extranet de proveedores. La web
+constantemente indica “contraseña incorrecta”. Evidentemente la misma no
+funciona.
+Les pido por favor el detalle de los pagos realizados a nuestra firma
+(incluyendo retenciones) los días 8/1/25 y 15/1/25.
+GALZZI SRL
+CUIT 30708460687
+Gracias
+Saludos,
+Ing. Matías Balduzzi
+Desarrollo Comercial
+[cid:image001.png@01DB679E.5487C800]
+Av. Juan B. Alberdi 965 - 9 "21" - CABA
+Tel.: 011 15-6487-2006 / 011 15 4490-4314
  </t>
   </si>
   <si>
@@ -3021,7 +3230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3034,6 +3243,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3052,30 +3262,31 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Adrián" refreshedDate="45678.342627662038" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="68" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Adrián" refreshedDate="45678.564088657404" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="67" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D69" sheet="Sheet1"/>
+    <worksheetSource ref="A1:D68" sheet="Sheet1"/>
   </cacheSource>
   <cacheFields count="4">
     <cacheField name="Asunto" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Cuerpo" numFmtId="0">
-      <sharedItems containsBlank="1" longText="1"/>
+      <sharedItems longText="1"/>
     </cacheField>
     <cacheField name="Categoría" numFmtId="0">
-      <sharedItems count="14">
+      <sharedItems count="15">
         <s v="Impresión de OP y/o Retenciones"/>
         <s v="Pedido devolución retenciones"/>
+        <s v="Otras consultas"/>
+        <s v="Facturas rechazadas"/>
         <s v="Estado de facturas"/>
-        <s v="Facturas rechazadas"/>
-        <s v="Otras consultas"/>
         <s v="Presentación de facturas"/>
         <s v="Error de registración"/>
         <s v="Alta de usuario"/>
-        <s v="Impresión de NC/ND"/>
         <s v="Problemas de acceso"/>
-        <s v="Salientes YPF" u="1"/>
+        <s v="Salientes YPF"/>
+        <s v="Desconocida" u="1"/>
+        <s v="Impresión de NC/ND" u="1"/>
         <s v="Otras consultas." u="1"/>
         <s v="Categoría: Estado de facturas" u="1"/>
         <s v="Impresión de NC/ND (Multas)" u="1"/>
@@ -3098,7 +3309,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="68">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="67">
   <r>
     <s v="Hotel Karim / 27-94112375-4"/>
     <s v="Buenos dias._x000a_   solicito por favor retenciones de la factura N° 00000067 con fecha de emision_x000a_16/12/2024 por un total final de $ 28.555971,60_x000a__x000a__x000a_   Muchas gracias. saludos. Fauzy Zeran"/>
@@ -3115,7 +3326,7 @@
     <s v="Consulta reclamo N°  CAP-509673-L6N7K5"/>
     <s v="Estimados,_x000a__x000a_ _x000a__x000a_Buenas tardes, el 5/12 envié el reclamo que adjunto, recibí el n° que le_x000a_asignaron (CAP-509673-L6N7K5) pero a la fecha no he tenido una devolución del_x000a_mismo.  Agradecería una respuesta._x000a__x000a_ _x000a__x000a_Muchas gracias,_x000a__x000a_ _x000a__x000a_Gerardo Cardaci_x000a__x000a_Finance_x000a__x000a_ _x000a__x000a_SGS Argentina S.A._x000a__x000a_Tronador 4890, 3° piso_x000a__x000a_C1430DNN -  Buenos Aires - Argentina_x000a__x000a_Telf: +54 9 11 6224-0952_x000a__x000a_E-mail: gerardo.cardaci@sgs.com_x000a__x000a_ _x000a__x000a_Information in this email and any attachments is confidential and intended_x000a_solely for the use of the individual(s) to whom it is addressed or otherwise_x000a_directed. Please note that any views or opinions presented in this email are_x000a_solely those of the author and do not necessarily represent those of the_x000a_Company. Finally, the recipient should check this email and any attachments for_x000a_the presence of viruses. The Company accepts no liability for any damage caused_x000a_by any virus transmitted by this email. All SGS services are rendered in_x000a_accordance with the applicable SGS conditions of service available on request_x000a_and accessible at https://www.sgs.com/en/terms-and-conditions"/>
     <x v="2"/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="retenciones YPF SA"/>
@@ -3132,13 +3343,13 @@
   <r>
     <s v="Re: Posicion Pedido 4506553557/10 - factura impaga YPF-CAP:0579000158"/>
     <s v="Muchas gracias por su respuesta. donde o como debo hacer para cambiar el mail de_x000a_contacto? la direccion de correos FLORENCIA.MANIFIESTO@GLOBALDATA.COM no existe_x000a_mas y deberia ser PEDRO.IBANEZ@GLOBALDATA.COM el mail de contacto_x000a_Gracias_x000a__x000a__x000a__x000a__x000a_--------------------------------------------------------------------------------_x000a__x000a_From: Facturación YPF &lt;facturacion@proveedoresypf.com&gt;_x000a_Sent: Wednesday, January 15, 2025 9:26 AM_x000a_To: Pedro Ibanez &lt;Pedro.Ibanez@globaldata.com&gt;_x000a_Subject: RE: Posicion Pedido 4506553557/10 - factura impaga YPF-CAP:0579000158_x000a_ _x000a_Estimado proveedor,_x000a_ _x000a_Se le informa acerca del estado de la factura 0003A00000063, se encuentra_x000a_rechazada._x000a_ _x000a_ * Motivo del rechazo: Factura rechazada en AFIP por error en la fecha de de_x000a_   vencimiento del pago consignada en la FCE. Refacturar y enviar al buzón. _x000a_ * Mail donde se informo : FLORENCIA.MANIFIESTO@GLOBALDATA.COM_x000a_ * Fecha de rechazo: 13/06/2024_x000a__x000a_ _x000a_ _x000a_Saludos,_x000a_CENTRO DE ATENCIÓN A PROVEEDORES YPF_x000a_ _x000a_[cid:image.png@00742d2a3e367466aaf9680.00742d2a3]_x000a_Atención telefónica: 0810 122 9681 Opción 1  - Lun a vie de 9 a 18 horas_x000a_Extranet: https://portalsap.ypf.com/_x000a_Presentación de facturas: recepciondefacturas@ypf.com_x000a_ _x000a_[cid:image.png@84a4fffbfb0dca11273c1b9.84a4fffbf]_x000a_ _x000a_INFORMACIÓN IMPORTANTE_x000a_ESTE BUZÓN NO ES DE RECEPCIÓN DE FACTURAS (por favor no nos ponga en copia en_x000a_sus presentaciones) _x000a_-  Buzón de Presentación de facturas: recepciondefacturas@ypf.com (No aplica_x000a_para las sociedades del grupo YPF Luz)_x000a_-  Extranet de Proveedores: https://portalsap.ypf.com/ (Si su mail no está_x000a_registrado,  pida el alta a Facturacion@proveedoresypf.com )_x000a_-  Formatos de presentación y más información_x000a_en https://proveedores.ypf.com/Pago-a-proveedores-preguntas-frecuentes.html_x000a_-  Legajos_x000a_impositivos: https://proveedores.ypf.com/certificados-e-informacion-impositiva.html_x000a_------------------- Mensaje original -------------------_x000a_De: Pedro Ibanez &lt;Pedro.Ibanez@globaldata.com&gt;;_x000a_Recibido: Tue Jan 14 2025 16:12:48 GMT-0300 (hora estándar de Argentina)_x000a_Para: facturacion@proveedoresypf.com facturacion@proveedoresypf.com_x000a_&lt;facturacion@proveedoresypf.com&gt;; facturacion@proveedoresypf.com_x000a_&lt;facturacion@proveedoresypf.com&gt;; Facturacion &lt;facturacion@proveedoresypf.com&gt;;_x000a_CC: Russell Wheatley &lt;russell.wheatley@globaldata.com&gt;;_x000a_Angel.Heredia@globaldata.com; Neil.Hendry@globaldata.com;_x000a_Asunto: Posicion Pedido 4506553557/10 - factura impaga_x000a__x000a__x000a_Estimados Atencion a Proveedores_x000a_Estamos tras noticias el pago de la factura adjunta. Nos podrian ayudar a_x000a_entender el status de la misma?_x000a_ _x000a_Hoja de Entrada 1022105513_x000a_Posicion Pedido 4506553557/10_x000a_Numero de Proveedor 3071104195_x000a_Canadean Limited_x000a_ _x000a_Lamentablemente el telefono 0810-122-9681 solo permite llamadas desde Argentina_x000a_y nos encontramos en el exterior_x000a_Agradecere cualquier tipo de ayuda_x000a_ _x000a_ _x000a_ _x000a_ _x000a_ _x000a_ _x000a_ _x000a_ _x000a_ _x000a_ _x000a_ _x000a_ _x000a_ _x000a_ _x000a_ _x000a__x000a_Disclaimer_x000a__x000a_The information contained in this communication from the sender is confidential._x000a_It is intended solely for use by the recipient and others authorized to receive_x000a_it. If you are not the recipient, you are hereby notified that any disclosure,_x000a_copying, distribution or taking action in relation of the contents of this_x000a_information is strictly prohibited and may be unlawful._x000a__x000a_This email has been scanned for viruses and malware, and may have been_x000a_automatically archived by Mimecast Ltd, an innovator in Software as a Service_x000a_(SaaS) for business. Providing a safer and more useful place for your human_x000a_generated data. Specializing in; Security, archiving and compliance._x000a__x000a_AVISO LEGAL: Este mensaje y cualquier archivo anexo al mismo son privados y_x000a_confidenciales y está dirigido únicamente a su destinatario. Si usted no es el_x000a_destinatario original de este mensaje y por este medio pudo acceder a dicha_x000a_información por favor elimine el mismo. La distribución o copia de este mensaje_x000a_está estrictamente prohibida. Esta comunicación es sólo para propósitos de_x000a_información y no debe ser considerada como propuesta, aceptación, tratativas_x000a_contractuales, contrato preliminar ni como una declaración de voluntad oficial_x000a_por parte de YPF y/o subsidiarias y/o afiliadas y no genera responsabilidad_x000a_precontractual ni contractual alguna por su contenido y/o sus adjuntos. La_x000a_transmisión de estos mensajes a través de mensajería corporativa no garantiza_x000a_que el correo electrónico sea seguro o libre de error. Por consiguiente, no_x000a_manifestamos que esta información sea completa o precisa. Toda información está_x000a_sujeta a alterarse sin previo aviso. LEGAL NOTICE: The contents of this message_x000a_and any attachments are private and confidential and are intended for the_x000a_recipient only. If you are not the intended recipient of this message and_x000a_through this message you had access to this information, please delete it. The_x000a_distribution or copying of this message is strictly prohibited. This_x000a_communication is for information purposes only. It shall not be regarded as a_x000a_proposal, acceptance, contract negotiation, preliminary contract or official_x000a_statement of will by YPF and/or its subsidiaries and/or affiliates, and shall_x000a_not create any precontractual or contractual liability whatsoever with regard to_x000a_its contents and/or attachments. Email transmission cannot be guaranteed to be_x000a_secure or error-free. Therefore, we do not represent that this information is_x000a_complete or accurate. All information is subject to change without prior notice._x000a__x000a__x000a__x000a_Disclaimer_x000a__x000a_The information contained in this communication from the sender is confidential._x000a_It is intended solely for use by the recipient and others authorized to receive_x000a_it. If you are not the recipient, you are hereby notified that any disclosure,_x000a_copying, distribution or taking action in relation of the contents of this_x000a_information is strictly prohibited and may be unlawful._x000a__x000a_This email has been scanned for viruses and malware, and may have been_x000a_automatically archived by Mimecast Ltd, an innovator in Software as a Service_x000a_(SaaS) for business. Providing a safer and more useful place for your human_x000a_generated data. Specializing in; Security, archiving and compliance."/>
-    <x v="3"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Files attached to a message triggered a policy"/>
     <s v=" _x000a__x000a_Logo_x000a_[https://static-uk.mimecast.com/mimecast/resources/images/notifications/mimecast-logo-254x120.png]_x000a__x000a_ _x000a__x000a__x000a_FILES ATTACHED TO A MESSAGE TRIGGERED A POLICY_x000a__x000a_Contact your administrator if you need these files._x000a__x000a_ _x000a__x000a_Message Details_x000a__x000a_ _x000a__x000a_From_x000a__x000a_&quot;facturacion@proveedoresypf.com&quot; &lt;facturacion@proveedoresypf.com&gt;_x000a__x000a_To_x000a__x000a_Pedro Ibanez &lt;pedro.ibanez@globaldata.com&gt;_x000a__x000a_Subject_x000a__x000a_¡Hemos recibido tu consulta!  CAP-520263-L3X1Q3 - YPF-CAP:0001655533_x000a__x000a_Date_x000a__x000a_Wed, 15 Jan 2025 16:25:25 +0000_x000a__x000a_Policy_x000a__x000a_Default Attachment Management Definition - Block Dangerous File Types_x000a__x000a_Status_x000a__x000a_The message has been placed on HOLD - action required_x000a__x000a_ _x000a__x000a_File Details_x000a__x000a_ _x000a__x000a_- Attachment Policy (Default Attachment Management Definition - Block Dangerous_x000a_File Types)_x000a__x000a_Attachment Name: image.png_x000a_Policy Name: Default Attachment Management Definition - Block Dangerous File_x000a_Types_x000a_Detected as: png_x000a_Size: 57837 bytes_x000a_Action Taken: HOLD (Entire Message Held for Review)_x000a_Reason: Possible QR Image (100% probability), https://walink[.]co/013024_x000a__x000a__x000a_ _x000a__x000a_ _x000a__x000a_[https://static-uk.mimecast.com/mimecast/resources/images/notifications/powered-mimecast-logo-278x28.png]_x000a__x000a_ _x000a__x000a_© 2003 - 2025 Mimecast Services Limited and affiliates._x000a__x000a_ _x000a__x000a_                                                           "/>
-    <x v="4"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -3180,31 +3391,31 @@
   <r>
     <s v="RE: FW: PHMA - FACTURA VENCIDA, SE RECLAMA PAGO - YPF S.A. YPF-CAP:0376004328"/>
     <s v="Muchas gracias!_x000a__x000a_Saludos!_x000a__x000a_ _x000a__x000a_[cid:image001.gif@01DB6756.7C1B3D90]_x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ Tatiana Y. Edreira | Senior | CBS_x000a__x000a_   Pistrelli, Henry Martin y Asociados S.A._x000a__x000a_   25 de Mayo 487, C1002ABI, Ciudad Autónoma de Buenos Aires, Argentina_x000a__x000a_   Office: + 54 11 4318-1600 | Tatiana.Edreira@ar.ey.com_x000a__x000a_   Website: http://www.ey.com [http://www.ey.com/]_x000a__x000a_ _x000a__x000a__x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_From: Facturación YPF &lt;facturacion@proveedoresypf.com&gt;_x000a_Sent: Wednesday, January 15, 2025 12:03 PM_x000a_To: Cobranzas EY AR &lt;cobranzas.ey@ar.ey.com&gt;_x000a_Subject: RE: FW: PHMA - FACTURA VENCIDA, SE RECLAMA PAGO - YPF S.A._x000a_YPF-CAP:0376004328_x000a__x000a_ _x000a__x000a_Estimada, _x000a__x000a_ _x000a__x000a_Hemos verificado en sistema y le informamos que ambas facturas se encuentran_x000a_contabilizadas con orden de pago generada y fecha de pago para el día de hoy_x000a_15/1/2025 _x000a_ _x000a__x000a_Saludos,_x000a__x000a_CENTRO DE ATENCIÓN A PROVEEDORES YPF_x000a__x000a_ _x000a__x000a_[cid:image002.png@01DB6756.7C1B3D90]_x000a__x000a_Atención telefónica: 0810 122 9681 Opción 1  - Lun a vie de 9 a 18 horas_x000a__x000a_Extranet: https://portalsap.ypf.com/_x000a__x000a_Presentación de facturas: recepciondefacturas@ypf.com_x000a__x000a_ _x000a__x000a_[cid:image003.png@01DB6756.7C1B3D90]_x000a__x000a_ _x000a__x000a_INFORMACIÓN IMPORTANTE_x000a__x000a_ESTE BUZÓN NO ES DE RECEPCIÓN DE FACTURAS (por favor no nos ponga en copia en_x000a_sus presentaciones) _x000a__x000a_-  Buzón de Presentación de facturas: recepciondefacturas@ypf.com (No aplica_x000a_para las sociedades del grupo YPF Luz)_x000a__x000a_-  Extranet de Proveedores: https://portalsap.ypf.com/ (Si su mail no está_x000a_registrado,  pida el alta a Facturacion@proveedoresypf.com )_x000a__x000a_-  Formatos de presentación y más información_x000a_en https://proveedores.ypf.com/Pago-a-proveedores-preguntas-frecuentes.html_x000a__x000a_-  Legajos_x000a_impositivos: https://proveedores.ypf.com/certificados-e-informacion-impositiva.html_x000a__x000a_------------------- Mensaje original -------------------_x000a_De: cobranzas.ey@ar.ey.com &lt;cobranzas.ey@ar.ey.com&gt;;_x000a_Recibido: Tue Jan 14 2025 21:28:34 GMT-0300 (hora estándar de Argentina)_x000a_Para: actualizacionfiscal@proveedoresypf.com_x000a_&lt;actualizacionfiscal@proveedoresypf.com&gt;; SUSPERREGUI, MANUEL_x000a_&lt;manuel.susperregui@ypf.com&gt;; facturacion@proveedoresypf.com_x000a_facturacion@proveedoresypf.com &lt;facturacion@proveedoresypf.com&gt;;_x000a_facturacion@proveedoresypf.com &lt;facturacion@proveedoresypf.com&gt;;_x000a_Rodrigo.Ezquerra@ypf.com &lt;rodrigo.ezquerra@ypf.com&gt;; Facturacion_x000a_&lt;facturacion@proveedoresypf.com&gt;; Actualizacion Fiscal_x000a_&lt;actualizacionfiscal@proveedoresypf.com&gt;;_x000a_CC: Natalia Leibovich &lt;natalia.leibovich@ar.ey.com&gt;;_x000a_Asunto: FW: PHMA - FACTURA VENCIDA, SE RECLAMA PAGO - YPF S.A._x000a__x000a__x000a__x000a_Buenas tardes, espero que se encuentren bien._x000a__x000a_Podrían brindarme una fecha de pago para las facturas N°3158 y N°172996? Nos_x000a_habían mencionado que abonarían el 12/01 pero de momento no hemos recibido el_x000a_mismo._x000a__x000a_Aguardo sus comentarios._x000a__x000a_Desde ya, muchas gracias._x000a__x000a_Saludos!_x000a__x000a_ _x000a__x000a_[cid:image001.gif@01DB6756.7C1B3D90]_x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ Tatiana Y. Edreira | Senior | CBS_x000a__x000a_   Pistrelli, Henry Martin y Asociados S.A._x000a__x000a_   25 de Mayo 487, C1002ABI, Ciudad Autónoma de Buenos Aires, Argentina_x000a__x000a_   Office: + 54 11 4318-1600 | Tatiana.Edreira@ar.ey.com_x000a__x000a_   Website: http://www.ey.com [http://www.ey.com/]_x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_From: Cobranzas EY AR_x000a_Sent: Tuesday, January 14, 2025 9:14 PM_x000a_To: Actualización Fiscal YPF &lt;actualizacionfiscal@proveedoresypf.com&gt;;_x000a_Facturación YPF &lt;facturacion@proveedoresypf.com&gt;; Rodrigo.Ezquerra@ypf.com;_x000a_Manuel.Susperregui@ypf.com_x000a_Cc: Natalia Leibovich &lt;Natalia.Leibovich@ar.ey.com&gt;_x000a_Subject: PHMA - FACTURA VENCIDA, SE RECLAMA PAGO - YPF S.A._x000a__x000a_ _x000a__x000a_Buenas tardes, espero que se encuentren bien._x000a__x000a_Podrían brindarme una fecha de pago para la factura N°3158? Nos habían_x000a_mencionado que abonarían el 12/01 pero de momento no hemos recibido el mismo._x000a__x000a_Aguardo sus comentarios._x000a__x000a_Desde ya, muchas gracias._x000a__x000a_Saludos!_x000a__x000a_ _x000a__x000a_[cid:image001.gif@01DB6756.7C1B3D90]_x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ Tatiana Y. Edreira | Senior | CBS_x000a__x000a_   Pistrelli, Henry Martin y Asociados S.A._x000a__x000a_   25 de Mayo 487, C1002ABI, Ciudad Autónoma de Buenos Aires, Argentina_x000a__x000a_   Office: + 54 11 4318-1600 | Tatiana.Edreira@ar.ey.com_x000a__x000a_   Website: http://www.ey.com [http://www.ey.com/]_x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a__x000a_____________________________________x000a_The information contained in this communication is intended solely for the use_x000a_of the individual or entity to whom it is addressed and others authorized to_x000a_receive it. It may contain confidential or legally privileged information. If_x000a_you are not the intended recipient you are hereby notified that any disclosure,_x000a_copying, distribution or taking any action in reliance on the contents of this_x000a_information is strictly prohibited and may be unlawful. If you have received_x000a_this communication in error, please notify us immediately by responding to this_x000a_email and then delete it from your system. EY is neither liable for the proper_x000a_and complete transmission of the information contained in this communication nor_x000a_for any delay in its receipt._x000a__x000a_AVISO LEGAL: Este mensaje y cualquier archivo anexo al mismo son privados y_x000a_confidenciales y está dirigido únicamente a su destinatario. Si usted no es el_x000a_destinatario original de este mensaje y por este medio pudo acceder a dicha_x000a_información por favor elimine el mismo. La distribución o copia de este mensaje_x000a_está estrictamente prohibida. Esta comunicación es sólo para propósitos de_x000a_información y no debe ser considerada como propuesta, aceptación, tratativas_x000a_contractuales, contrato preliminar ni como una declaración de voluntad oficial_x000a_por parte de YPF y/o subsidiarias y/o afiliadas y no genera responsabilidad_x000a_precontractual ni contractual alguna por su contenido y/o sus adjuntos. La_x000a_transmisión de estos mensajes a través de mensajería corporativa no garantiza_x000a_que el correo electrónico sea seguro o libre de error. Por consiguiente, no_x000a_manifestamos que esta información sea completa o precisa. Toda información está_x000a_sujeta a alterarse sin previo aviso. LEGAL NOTICE: The contents of this message_x000a_and any attachments are private and confidential and are intended for the_x000a_recipient only. If you are not the intended recipient of this message and_x000a_through this message you had access to this information, please delete it. The_x000a_distribution or copying of this message is strictly prohibited. This_x000a_communication is for information purposes only. It shall not be regarded as a_x000a_proposal, acceptance, contract negotiation, preliminary contract or official_x000a_statement of will by YPF and/or its subsidiaries and/or affiliates, and shall_x000a_not create any precontractual or contractual liability whatsoever with regard to_x000a_its contents and/or attachments. Email transmission cannot be guaranteed to be_x000a_secure or error-free. Therefore, we do not represent that this information is_x000a_complete or accurate. All information is subject to change without prior notice._x000a__x000a__x000a_____________________________________x000a_The information contained in this communication is intended solely for the use_x000a_of the individual or entity to whom it is addressed and others authorized to_x000a_receive it. It may contain confidential or legally privileged information. If_x000a_you are not the intended recipient you are hereby notified that any disclosure,_x000a_copying, distribution or taking any action in reliance on the contents of this_x000a_information is strictly prohibited and may be unlawful. If you have received_x000a_this communication in error, please notify us immediately by responding to this_x000a_email and then delete it from your system. EY is neither liable for the proper_x000a_and complete transmission of the information contained in this communication nor_x000a_for any delay in its receipt._x000a_"/>
-    <x v="2"/>
+    <x v="4"/>
     <x v="0"/>
   </r>
   <r>
     <s v="YBOT - Consulta Facturación CUIT - 30714535435"/>
     <s v="Hola, mi correo electrónico es: horaciomuller@mag-servicios.com._x000a_Mi consulta: Cómo puedo presentar una factura de una Orden de Compra ya generada_x000a__x000a_¡Saludos![http://url2118.actionmail.app/wf/open?upn=u001.otyO9U6HbGz0cVEZrQ4I-2FzQBbfSufCjXJvXpbnm7Uls6vBoxQ1a44hF6oC5TPh3Kd5bdzyp6QUdeRTfXyPRQmxrupBEne35qZbi1MC6D-2Bi5owac8hzq3-2BwRyPE-2BmOczYqE36gYw5766Pf808dvS6wWyvST2eaBE9MfGstRO2ZzkGVkmrKt-2FMQMNVNcDVK2NXiUOuwCXaqbhE9T91LDcK8mIK-2Bg-2B6Uu9CJhu6V80kICw-3D]"/>
-    <x v="5"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="YBOT - Consulta Facturación CUIT - 30714535435"/>
     <s v="Hola, mi correo electrónico es: horaciomuller@mag-servicios.com._x000a_Mi consulta: Me han enviado un Mail pero no médico si realizo Factura de crédito_x000a_electrónica o directamente ya mente Factura A, y a qué casilla de Mail envío_x000a_para poder presentarla, o la tengo que subir a alguna plataforma_x000a__x000a_¡Saludos![http://url2118.actionmail.app/wf/open?upn=u001.otyO9U6HbGz0cVEZrQ4I-2FzQBbfSufCjXJvXpbnm7UlvX-2BGjBIXMolkH3-2FLYUUVESRIFI1-2Fmx-2Fi2Ufp7O4MnDBJY9WhSIFmsPTDpCk2JguKv3iWVdhbzvrVSYoLJzHAa-2FKMJP3-2FHN56tWcrUF4u8LinlAkSTO-2Bw3d4L6dft-2B76hNWYfew64TirJpByjbJB4IBIS9QT7l7kdrLC3V2yOfqk5Ev3weJBSYea3ZS8HAJAhU-3D]"/>
-    <x v="5"/>
-    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Re: CONSULTA PAGO EDUARDO BREQUE YPF-CAP:0392003499"/>
     <s v="Genial, muchas gracias por responder._x000a__x000a__x000a_Saludos_x000a__x000a__x000a_Maite Breque_x000a_Mail. info@distribuidoralumai.com.ar_x000a_Tel: (011)4635-8748_x000a_Cel: (011) 1534511304_x000a_www.distribuidoralumai.com.ar [http://www.distribuidoralumai.com.ar/]_x000a__x000a_[https://ci3.googleusercontent.com/mail-sig/AIorK4yJ2DD5TX6xOBg07hsdAdA0mDqXviCdnISmsXWFx-ihX1UrXNNNhZgf39t5gPmwNOO5IbMbKk4OUq_J]_x000a__x000a__x000a__x000a_El mié, 15 ene 2025 a las 14:07, Facturación YPF_x000a_(&lt;facturacion@proveedoresypf.com&gt;) escribió:_x000a__x000a_&gt; Estimados, buenas tardes_x000a_&gt;  _x000a_&gt; La FC 0004A00012673 se encuentra registrada, con fecha de pago para el día de_x000a_&gt; hoy 15.01. Los pagos se realizan durante el transcurso del dia._x000a_&gt;  _x000a_&gt;  _x000a_&gt;  _x000a_&gt; Saludos,_x000a_&gt; CENTRO DE ATENCIÓN A PROVEEDORES YPF_x000a_&gt;  _x000a_&gt; [cid:ii_1946af8775bcb971f161]_x000a_&gt; Atención telefónica: 0810 122 9681 Opción 1  - Lun a vie de 9 a 18 horas_x000a_&gt; Extranet: https://portalsap.ypf.com/_x000a_&gt; Presentación de facturas: recepciondefacturas@ypf.com_x000a_&gt;  _x000a_&gt; [cid:ii_1946af8775bcb971f162]_x000a_&gt;  _x000a_&gt; INFORMACIÓN IMPORTANTE_x000a_&gt; ESTE BUZÓN NO ES DE RECEPCIÓN DE FACTURAS (por favor no nos ponga en copia en_x000a_&gt; sus presentaciones) _x000a_&gt; -  Buzón de Presentación de facturas: recepciondefacturas@ypf.com (No aplica_x000a_&gt; para las sociedades del grupo YPF Luz)_x000a_&gt; -  Extranet de Proveedores: https://portalsap.ypf.com/ (Si su mail no está_x000a_&gt; registrado,  pida el alta a Facturacion@proveedoresypf.com )_x000a_&gt; -  Formatos de presentación y más información_x000a_&gt; en https://proveedores.ypf.com/Pago-a-proveedores-preguntas-frecuentes.html_x000a_&gt; -  Legajos_x000a_&gt; impositivos: https://proveedores.ypf.com/certificados-e-informacion-impositiva.html_x000a_&gt; ------------------- Mensaje original -------------------_x000a_&gt; De: Maite Breque &lt;info@distribuidoralumai.com.ar&gt;;_x000a_&gt; Recibido: Wed Jan 15 2025 10:54:22 GMT-0300 (hora estándar de Argentina)_x000a_&gt; Para: facturacion@proveedoresypf.com facturacion@proveedoresypf.com_x000a_&gt; &lt;facturacion@proveedoresypf.com&gt;; facturacion@proveedoresypf.com_x000a_&gt; &lt;facturacion@proveedoresypf.com&gt;; Facturacion_x000a_&gt; &lt;facturacion@proveedoresypf.com&gt;;_x000a_&gt; Asunto: CONSULTA PAGO EDUARDO BREQUE_x000a_&gt; _x000a_&gt; _x000a_&gt; Buen día, quería consultar por el pago de la factura 12673 $998.525,34 fecha_x000a_&gt; 13 de diciembre. Que ya tendría que haber salido._x000a_&gt;  _x000a_&gt; Espero su respuesta, saludos._x000a_&gt;  _x000a_&gt; Maite Breque_x000a_&gt; Mail. info@distribuidoralumai.com.ar_x000a_&gt; Tel: (011)4635-8748_x000a_&gt; Cel: (011) 1534511304_x000a_&gt; www.distribuidoralumai.com.ar [http://www.distribuidoralumai.com.ar/]_x000a_&gt; [https://ci3.googleusercontent.com/mail-sig/AIorK4yJ2DD5TX6xOBg07hsdAdA0mDqXviCdnISmsXWFx-ihX1UrXNNNhZgf39t5gPmwNOO5IbMbKk4OUq_J]_x000a_&gt; AVISO LEGAL: Este mensaje y cualquier archivo anexo al mismo son privados y_x000a_&gt; confidenciales y está dirigido únicamente a su destinatario. Si usted no es el_x000a_&gt; destinatario original de este mensaje y por este medio pudo acceder a dicha_x000a_&gt; información por favor elimine el mismo. La distribución o copia de este_x000a_&gt; mensaje está estrictamente prohibida. Esta comunicación es sólo para_x000a_&gt; propósitos de información y no debe ser considerada como propuesta,_x000a_&gt; aceptación, tratativas contractuales, contrato preliminar ni como una_x000a_&gt; declaración de voluntad oficial por parte de YPF y/o subsidiarias y/o_x000a_&gt; afiliadas y no genera responsabilidad precontractual ni contractual alguna por_x000a_&gt; su contenido y/o sus adjuntos. La transmisión de estos mensajes a través de_x000a_&gt; mensajería corporativa no garantiza que el correo electrónico sea seguro o_x000a_&gt; libre de error. Por consiguiente, no manifestamos que esta información sea_x000a_&gt; completa o precisa. Toda información está sujeta a alterarse sin previo aviso._x000a_&gt; LEGAL NOTICE: The contents of this message and any attachments are private and_x000a_&gt; confidential and are intended for the recipient only. If you are not the_x000a_&gt; intended recipient of this message and through this message you had access to_x000a_&gt; this information, please delete it. The distribution or copying of this_x000a_&gt; message is strictly prohibited. This communication is for information purposes_x000a_&gt; only. It shall not be regarded as a proposal, acceptance, contract_x000a_&gt; negotiation, preliminary contract or official statement of will by YPF and/or_x000a_&gt; its subsidiaries and/or affiliates, and shall not create any precontractual or_x000a_&gt; contractual liability whatsoever with regard to its contents and/or_x000a_&gt; attachments. Email transmission cannot be guaranteed to be secure or_x000a_&gt; error-free. Therefore, we do not represent that this information is complete_x000a_&gt; or accurate. All information is subject to change without prior notice."/>
-    <x v="2"/>
+    <x v="4"/>
     <x v="0"/>
   </r>
   <r>
     <s v="AG RE: YPF-CAP:0541004250"/>
     <s v="Buenas tardes_x000a__x000a_ _x000a__x000a_Esa información si está. La que necesito es del pago por $ 128.453.196,93._x000a__x000a_ _x000a__x000a_Gracias!_x000a__x000a_ _x000a__x000a_[cid:image001.jpg@01DB6758.DE154340]_x000a__x000a_ _x000a__x000a_image004 [cid:image002.png@01DB6758.DE154340]_x000a__x000a_ _x000a__x000a_Analia  Gomez_x000a__x000a_Gestión de Cobranzas_x000a__x000a_ _x000a__x000a_+54 11 4705 7463_x000a__x000a_Alem 1110_x000a__x000a_(C1001AAT) CABA, Argentina._x000a__x000a_www.axionenergy.com [https://www.axionenergy.com/]_x000a__x000a_ _x000a__x000a_ _x000a__x000a_De: Facturación YPF &lt;facturacion@proveedoresypf.com&gt;_x000a_Enviado el: miércoles, 15 de enero de 2025 14:11_x000a_Para: Gestiondecobranz Gestiondecobranz &lt;Gestiondecobranzas@axionenergy.com&gt;_x000a_Asunto: [Externo]YPF-CAP:0541004250_x000a__x000a_ _x000a__x000a_Este correo se generó fuera de la organización. No acceder a links, tampoco_x000a_abrir adjuntos a menos que confirmen que el remitente es de confianza y el_x000a_contenido es seguro._x000a__x000a_Estimada, _x000a__x000a_Se le adjunta la documentación solicitada._x000a__x000a_ _x000a__x000a_Saludos._x000a__x000a_[cid:image003.png@01DB6758.DE154340]_x000a__x000a_CENTRO DE ATENCIÓN A PROVEEDORES YPF_x000a__x000a_ _x000a__x000a_Atención telefónica: 0810 122 9681 Opción 1  - Lun a vie de 9 a 18 horas_x000a__x000a_Extranet: https://portalsap.ypf.com/_x000a__x000a_Presentación de facturas: recepciondefacturas@ypf.com_x000a__x000a_ _x000a__x000a_[cid:image004.png@01DB6758.DE154340]_x000a__x000a_ _x000a__x000a_INFORMACIÓN IMPORTANTE_x000a__x000a_ESTE BUZÓN NO ES DE RECEPCIÓN DE FACTURAS (por favor no nos ponga en copia en_x000a_sus presentaciones) _x000a__x000a_-  Buzón de Presentación de facturas: recepciondefacturas@ypf.com (No aplica_x000a_para las sociedades del grupo YPF Luz)_x000a__x000a_-  Extranet de Proveedores: https://portalsap.ypf.com/ (Si su mail no está_x000a_registrado,  pida el alta a Facturacion@proveedoresypf.com )_x000a__x000a_-  Formatos de presentación y más información_x000a_en https://proveedores.ypf.com/Pago-a-proveedores-preguntas-frecuentes.html_x000a__x000a_-  Legajos_x000a_impositivos: https://proveedores.ypf.com/certificados-e-informacion-impositiva.html_x000a__x000a_AVISO LEGAL: Este mensaje y cualquier archivo anexo al mismo son privados y_x000a_confidenciales y está dirigido únicamente a su destinatario. Si usted no es el_x000a_destinatario original de este mensaje y por este medio pudo acceder a dicha_x000a_información por favor elimine el mismo. La distribución o copia de este mensaje_x000a_está estrictamente prohibida. Esta comunicación es sólo para propósitos de_x000a_información y no debe ser considerada como propuesta, aceptación, tratativas_x000a_contractuales, contrato preliminar ni como una declaración de voluntad oficial_x000a_por parte de YPF y/o subsidiarias y/o afiliadas y no genera responsabilidad_x000a_precontractual ni contractual alguna por su contenido y/o sus adjuntos. La_x000a_transmisión de estos mensajes a través de mensajería corporativa no garantiza_x000a_que el correo electrónico sea seguro o libre de error. Por consiguiente, no_x000a_manifestamos que esta información sea completa o precisa. Toda información está_x000a_sujeta a alterarse sin previo aviso. LEGAL NOTICE: The contents of this message_x000a_and any attachments are private and confidential and are intended for the_x000a_recipient only. If you are not the intended recipient of this message and_x000a_through this message you had access to this information, please delete it. The_x000a_distribution or copying of this message is strictly prohibited. This_x000a_communication is for information purposes only. It shall not be regarded as a_x000a_proposal, acceptance, contract negotiation, preliminary contract or official_x000a_statement of will by YPF and/or its subsidiaries and/or affiliates, and shall_x000a_not create any precontractual or contractual liability whatsoever with regard to_x000a_its contents and/or attachments. Email transmission cannot be guaranteed to be_x000a_secure or error-free. Therefore, we do not represent that this information is_x000a_complete or accurate. All information is subject to change without prior notice."/>
-    <x v="2"/>
+    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
@@ -3222,20 +3433,20 @@
   <r>
     <s v="RE: Respuesta CAP-518834-R4G2W1  - Fc 0008A00000720 | Soc 0620 YPF-CAP:0579000146"/>
     <s v="Gracias, tema cerrado,_x000a__x000a_ _x000a__x000a_ _x000a__x000a_Ruben_x000a__x000a_ _x000a__x000a_De: Facturación YPF &lt;facturacion@proveedoresypf.com&gt;_x000a_Enviado el: miércoles, 15 de enero de 2025 13:28_x000a_Para: Ruben Brunori &lt;ruben.brunori@bertottoar.com&gt;_x000a_Asunto: RE: Respuesta CAP-518834-R4G2W1  - Fc 0008A00000720 | Soc 0620_x000a_YPF-CAP:0579000146_x000a__x000a_ _x000a__x000a_Estimado,_x000a__x000a_ _x000a__x000a_Hemos verificado nuevamente en sistema y le informamos que la factura se_x000a_encuentra contabilizada con orden de pago generada y fecha de pago para el dia_x000a_de hoy (15/01/2025)._x000a__x000a_ _x000a__x000a_ _x000a__x000a_Saludos,_x000a__x000a_CENTRO DE ATENCIÓN A PROVEEDORES YPF_x000a__x000a_ _x000a__x000a_[cid:image002.png@01DB6759.CF051A50]_x000a__x000a_Atención telefónica: 0810 122 9681 Opción 1  - Lun a vie de 9 a 18 horas_x000a__x000a_Extranet: https://portalsap.ypf.com/_x000a__x000a_Presentación de facturas: recepciondefacturas@ypf.com_x000a__x000a_ _x000a__x000a_[cid:image003.png@01DB6759.CF051A50]_x000a__x000a_ _x000a__x000a_INFORMACIÓN IMPORTANTE_x000a__x000a_ESTE BUZÓN NO ES DE RECEPCIÓN DE FACTURAS (por favor no nos ponga en copia en_x000a_sus presentaciones) _x000a__x000a_-  Buzón de Presentación de facturas: recepciondefacturas@ypf.com (No aplica_x000a_para las sociedades del grupo YPF Luz)_x000a__x000a_-  Extranet de Proveedores: https://portalsap.ypf.com/ (Si su mail no está_x000a_registrado,  pida el alta a Facturacion@proveedoresypf.com )_x000a__x000a_-  Formatos de presentación y más información_x000a_en https://proveedores.ypf.com/Pago-a-proveedores-preguntas-frecuentes.html_x000a__x000a_-  Legajos_x000a_impositivos: https://proveedores.ypf.com/certificados-e-informacion-impositiva.html_x000a__x000a_------------------- Mensaje original -------------------_x000a_De: Ruben Brunori &lt;ruben.brunori@bertottoar.com&gt;;_x000a_Recibido: Tue Jan 14 2025 14:52:35 GMT-0300 (hora estándar de Argentina)_x000a_Para: facturacion@proveedoresypf.com facturacion@proveedoresypf.com_x000a_&lt;facturacion@proveedoresypf.com&gt;; facturacion@proveedoresypf.com_x000a_&lt;facturacion@proveedoresypf.com&gt;; Facturacion &lt;facturacion@proveedoresypf.com&gt;;_x000a_Asunto: RE: Respuesta CAP-518834-R4G2W1  - Fc 0008A00000720 | Soc 0620_x000a_YPF-CAP:0579000146_x000a__x000a__x000a__x000a__x000a_Buenas tardes, el reclamo no es que la factura no esta, en la web de YPF_x000a__x000a_Esta cargada y la debian cancelar ayer y esa acción no se ejecuto. Estamos_x000a__x000a_Reclamando el pago.-_x000a__x000a_ _x000a__x000a_Esto no es normal y es perjudicial, debajo la pantalla y en adjunto la misma_x000a_donde se ve_x000a__x000a_Esa factura cargada y puesta al pago para la fecha 12/01.-_x000a__x000a_ _x000a__x000a_ _x000a__x000a_[cid:image004.png@01DB6759.CF051A50]_x000a__x000a_ _x000a__x000a_De: Facturación YPF &lt;facturacion@proveedoresypf.com&gt;_x000a_Enviado el: martes, 14 de enero de 2025 11:30_x000a_Para: Ruben Brunori &lt;ruben.brunori@bertottoar.com&gt;_x000a_Asunto: Respuesta CAP-518834-R4G2W1  - Fc 0008A00000720 | Soc 0620_x000a_YPF-CAP:0579000146_x000a__x000a_ _x000a__x000a_Estimado proveedor,_x000a__x000a_ _x000a__x000a_Le informamos que la Fc 0008A00000720 no se encuentra contabilizada ni_x000a_rechazada._x000a__x000a_ _x000a__x000a_Para poder gestionar un reclamo solicitando que se le informe el status de sus_x000a_documentos no contabilizados (ni rechazados), le pedimos por favor que envíe lo_x000a_siguiente según el caso:_x000a__x000a_ _x000a__x000a_- Facturas/ND comunes (presentación vía E-mail): adjuntar el mail que envió a_x000a_Recepción de Facturas, éste debe ser el mail tal cual lo envió, con el PDF de la_x000a_factura. No se aceptarán documentos en formatos editables. No se aceptan_x000a_reenvíos, solo elementos de correo electrónico adjuntos._x000a__x000a_ _x000a__x000a_- Factura de Crédito Electrónica (FCE) MiPyMe/ND de Crédito MiPyM: además del_x000a_E-mail original de envío, remitirnos una captura de pantalla de su portal AFIP_x000a_donde se visualice de forma clara el ESTADO del documento._x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_De no cumplir con lo solicitado, no podemos dar curso al reclamo._x000a_Aclaración: Aconsejamos realizar los reclamos por el estado de sus facturas una_x000a_vez transcurridos los 15 días de realizada la presentación de su factura, a fin_x000a_de cumplir con los plazos necesarios para la registración._x000a__x000a_Solo se dará inicio al reclamo si pasaron 15 días corridos desde la presentación_x000a_del documento. _x000a__x000a_Se recomienda hacer el seguimiento de sus facturas a través de la Extranet o_x000a_AFIP respectivamente. _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_Saludos,_x000a__x000a_CENTRO DE ATENCIÓN A PROVEEDORES YPF_x000a__x000a_ _x000a__x000a_[cid:image002.png@01DB6759.CF051A50]_x000a__x000a_Atención telefónica: 0810 122 9681 Opción 1  - Lun a vie de 9 a 18 horas_x000a__x000a_Extranet: https://portalsap.ypf.com/_x000a__x000a_Presentación de facturas: recepciondefacturas@ypf.com_x000a__x000a_ _x000a__x000a_[cid:image003.png@01DB6759.CF051A50]_x000a__x000a_ _x000a__x000a_INFORMACIÓN IMPORTANTE_x000a__x000a_ESTE BUZÓN NO ES DE RECEPCIÓN DE FACTURAS (por favor no nos ponga en copia en_x000a_sus presentaciones) _x000a__x000a_-  Buzón de Presentación de facturas: recepciondefacturas@ypf.com (No aplica_x000a_para las sociedades del grupo YPF Luz)_x000a__x000a_-  Extranet de Proveedores: https://portalsap.ypf.com/ (Si su mail no está_x000a_registrado,  pida el alta a Facturacion@proveedoresypf.com )_x000a__x000a_-  Formatos de presentación y más información_x000a_en https://proveedores.ypf.com/Pago-a-proveedores-preguntas-frecuentes.html_x000a__x000a_-  Legajos_x000a_impositivos: https://proveedores.ypf.com/certificados-e-informacion-impositiva.html_x000a__x000a_------------------- Mensaje original -------------------_x000a_De: Ruben Brunori &lt;ruben.brunori@bertottoar.com&gt;;_x000a_Recibido: Tue Jan 14 2025 07:30:15 GMT-0300 (hora estándar de Argentina)_x000a_Para: facturacion@proveedoresypf.com facturacion@proveedoresypf.com_x000a_&lt;facturacion@proveedoresypf.com&gt;; facturacion@proveedoresypf.com_x000a_&lt;facturacion@proveedoresypf.com&gt;; Facturacion &lt;facturacion@proveedoresypf.com&gt;;_x000a_Asunto: Proveedor : 3054717491 : Factura impaga_x000a__x000a_ _x000a__x000a_Buenos días, la factura 008ª00000720, que vencia el 12/01 , y se debía cancelar_x000a__x000a_El 13/01 , no fue ejecutada para su pago, requerimos informar sobre su_x000a_cancelación._x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_[cid:image004.png@01DB6759.CF051A50]_x000a__x000a_ _x000a__x000a_[cid:image005.png@01DB6759.CF051A50]_x000a__x000a_ _x000a__x000a_Ruben Brunori_x000a__x000a_Jefe de Facturación, Créditos y Cobranzas_x000a__x000a_+54 9 3472 - 624213_x000a__x000a_+54 (3472) 425095/96/97_x000a_Ruta Nacional Nº 9 KM 442,7_x000a_X2580GSK Marcos Juárez · Córdoba, Argentina_x000a__x000a_www.bertotto-boglione.com_x000a__x000a_ _x000a__x000a_ _x000a__x000a_AVISO LEGAL: Este mensaje y cualquier archivo anexo al mismo son privados y_x000a_confidenciales y está dirigido únicamente a su destinatario. Si usted no es el_x000a_destinatario original de este mensaje y por este medio pudo acceder a dicha_x000a_información por favor elimine el mismo. La distribución o copia de este mensaje_x000a_está estrictamente prohibida. Esta comunicación es sólo para propósitos de_x000a_información y no debe ser considerada como propuesta, aceptación, tratativas_x000a_contractuales, contrato preliminar ni como una declaración de voluntad oficial_x000a_por parte de YPF y/o subsidiarias y/o afiliadas y no genera responsabilidad_x000a_precontractual ni contractual alguna por su contenido y/o sus adjuntos. La_x000a_transmisión de estos mensajes a través de mensajería corporativa no garantiza_x000a_que el correo electrónico sea seguro o libre de error. Por consiguiente, no_x000a_manifestamos que esta información sea completa o precisa. Toda información está_x000a_sujeta a alterarse sin previo aviso. LEGAL NOTICE: The contents of this message_x000a_and any attachments are private and confidential and are intended for the_x000a_recipient only. If you are not the intended recipient of this message and_x000a_through this message you had access to this information, please delete it. The_x000a_distribution or copying of this message is strictly prohibited. This_x000a_communication is for information purposes only. It shall not be regarded as a_x000a_proposal, acceptance, contract negotiation, preliminary contract or official_x000a_statement of will by YPF and/or its subsidiaries and/or affiliates, and shall_x000a_not create any precontractual or contractual liability whatsoever with regard to_x000a_its contents and/or attachments. Email transmission cannot be guaranteed to be_x000a_secure or error-free. Therefore, we do not represent that this information is_x000a_complete or accurate. All information is subject to change without prior notice._x000a__x000a_AVISO LEGAL: Este mensaje y cualquier archivo anexo al mismo son privados y_x000a_confidenciales y está dirigido únicamente a su destinatario. Si usted no es el_x000a_destinatario original de este mensaje y por este medio pudo acceder a dicha_x000a_información por favor elimine el mismo. La distribución o copia de este mensaje_x000a_está estrictamente prohibida. Esta comunicación es sólo para propósitos de_x000a_información y no debe ser considerada como propuesta, aceptación, tratativas_x000a_contractuales, contrato preliminar ni como una declaración de voluntad oficial_x000a_por parte de YPF y/o subsidiarias y/o afiliadas y no genera responsabilidad_x000a_precontractual ni contractual alguna por su contenido y/o sus adjuntos. La_x000a_transmisión de estos mensajes a través de mensajería corporativa no garantiza_x000a_que el correo electrónico sea seguro o libre de error. Por consiguiente, no_x000a_manifestamos que esta información sea completa o precisa. Toda información está_x000a_sujeta a alterarse sin previo aviso. LEGAL NOTICE: The contents of this message_x000a_and any attachments are private and confidential and are intended for the_x000a_recipient only. If you are not the intended recipient of this message and_x000a_through this message you had access to this information, please delete it. The_x000a_distribution or copying of this message is strictly prohibited. This_x000a_communication is for information purposes only. It shall not be regarded as a_x000a_proposal, acceptance, contract negotiation, preliminary contract or official_x000a_statement of will by YPF and/or its subsidiaries and/or affiliates, and shall_x000a_not create any precontractual or contractual liability whatsoever with regard to_x000a_its contents and/or attachments. Email transmission cannot be guaranteed to be_x000a_secure or error-free. Therefore, we do not represent that this information is_x000a_complete or accurate. All information is subject to change without prior notice."/>
-    <x v="2"/>
+    <x v="4"/>
     <x v="0"/>
   </r>
   <r>
     <s v="RE: Respuesta CAP-500660-Q3G6R3  - FC 00014A00000843 (1167) YPF-CAP:0555000834"/>
     <s v="Estimados, buenos días._x000a__x000a_ _x000a__x000a_Por favor, necesitamos tener respuesta sobre el caso CAP-494106-Z4C4D8,_x000a_correspondiente a la factura 14-843 (UTE Amarga Chica), la cual ya se encuentra_x000a_vencida y por lo que debe ser cancelada a la brevedad. Desde hace semanas que_x000a_estamos esperando respuesta sobre este caso._x000a__x000a_ _x000a__x000a_Aguardamos sus comentarios._x000a__x000a_ _x000a__x000a_Muchas gracias._x000a__x000a_ _x000a__x000a_Saludos._x000a__x000a_ _x000a__x000a_Manuel Morelli – Sr Billing Coordinator._x000a__x000a_NABORS INTERNATIONAL ARGENTINA S.R.L_x000a__x000a_manuel.morelli@nabors.com | www.nabors.com [http://www.nabors.com/]_x000a__x000a_[cid:image001.png@01DB6759.D38969F0]_x000a__x000a_ _x000a__x000a_From: Loza, Tatiana &lt;Tatiana.Loza@nabors.com&gt;_x000a_Sent: Thursday, December 26, 2024 9:48 AM_x000a_To: Facturación YPF &lt;facturacion@proveedoresypf.com&gt;_x000a_Cc: Telmo, Leonardo &lt;Leonardo.Telmo@Nabors.com&gt;; Morelli, Manuel_x000a_&lt;Manuel.Morelli@Nabors.com&gt;_x000a_Subject: RE: Respuesta CAP-500660-Q3G6R3  - FC 00014A00000843 (1167)_x000a_YPF-CAP:0555000834_x000a__x000a_ _x000a__x000a_Estimados, buenos días._x000a__x000a_ _x000a__x000a_Por favor, necesitamos tener respuesta sobre el caso CAP-494106-Z4C4D8,_x000a_correspondiente a la factura 14-843 (UTE Amarga Chica), la cual ya se encuentra_x000a_vencida y por lo que debe ser cancelada a la brevedad. Desde hace semanas que_x000a_estamos esperando respuesta sobre este caso._x000a__x000a_ _x000a__x000a_Aguardamos sus comentarios._x000a__x000a_ _x000a__x000a_Muchas gracias._x000a__x000a_ _x000a__x000a_Saludos._x000a__x000a_ _x000a__x000a_ _x000a__x000a_Tatiana G. Loza – Billing Coordinator  _x000a__x000a_NABORS INTERNATIONAL ARGENTINA S.R.L_x000a__x000a_tatiana.loza@nabors.com | www.nabors.com [http://www.nabors.com/]_x000a__x000a_[cid:image001.png@01DB6759.D38969F0]_x000a__x000a_ _x000a__x000a_From: Facturación YPF &lt;facturacion@proveedoresypf.com&gt;_x000a_Sent: Monday, December 16, 2024 2:29 PM_x000a_To: Loza, Tatiana &lt;Tatiana.Loza@nabors.com&gt;_x000a_Subject: [EXT] RE: Respuesta CAP-500660-Q3G6R3  - FC 00014A00000843 (1167)_x000a_YPF-CAP:0555000834_x000a__x000a_ _x000a__x000a_CAUTION! Email External to Nabors | ¡PRECAUCIÓN! Correo electrónico externo a_x000a_Nabors | تنبيه! بريد إلكتروني خارجي إلى نابورز_x000a__x000a_ _x000a__x000a_Estimados, buenas tardes_x000a__x000a_ _x000a__x000a_Dejamos el reclamo en el caso CAP-494106-Z4C4D8_x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_Saludos,_x000a__x000a_CENTRO DE ATENCIÓN A PROVEEDORES YPF_x000a__x000a_ _x000a__x000a_[cid:image002.png@01DB6759.D38969F0]_x000a__x000a_Atención telefónica: 0810 122 9681 Opción 1  - Lun a vie de 9 a 18 horas_x000a__x000a_Extranet: https://portalsap.ypf.com/_x000a__x000a_Presentación de facturas: recepciondefacturas@ypf.com_x000a__x000a_ _x000a__x000a_[cid:image003.png@01DB6759.D38969F0]_x000a__x000a_ _x000a__x000a_INFORMACIÓN IMPORTANTE_x000a__x000a_ESTE BUZÓN NO ES DE RECEPCIÓN DE FACTURAS (por favor no nos ponga en copia en_x000a_sus presentaciones) _x000a__x000a_-  Buzón de Presentación de facturas: recepciondefacturas@ypf.com (No aplica_x000a_para las sociedades del grupo YPF Luz)_x000a__x000a_-  Extranet de Proveedores: https://portalsap.ypf.com/ (Si su mail no está_x000a_registrado,  pida el alta a Facturacion@proveedoresypf.com )_x000a__x000a_-  Formatos de presentación y más información_x000a_en https://proveedores.ypf.com/Pago-a-proveedores-preguntas-frecuentes.html_x000a__x000a_-  Legajos_x000a_impositivos: https://proveedores.ypf.com/certificados-e-informacion-impositiva.html_x000a__x000a_------------------- Mensaje original -------------------_x000a_De: Loza, Tatiana &lt;tatiana.loza@nabors.com&gt;;_x000a_Recibido: Mon Dec 16 2024 12:42:59 GMT-0300 (hora estándar de Argentina)_x000a_Para: facturacion@proveedoresypf.com facturacion@proveedoresypf.com_x000a_&lt;facturacion@proveedoresypf.com&gt;; facturacion@proveedoresypf.com_x000a_&lt;facturacion@proveedoresypf.com&gt;; Facturacion &lt;facturacion@proveedoresypf.com&gt;;_x000a_CC: Morelli, Manuel &lt;manuel.morelli@nabors.com&gt;; Leonardo Telmo_x000a_&lt;leonardo.telmo@nabors.com&gt;;_x000a_Asunto: RE: Respuesta CAP-500660-Q3G6R3  - FC 00014A00000843 (1167)_x000a_YPF-CAP:0555000834_x000a__x000a__x000a__x000a_Estimados, buenas tardes._x000a__x000a_ _x000a__x000a_Por favor, necesitamos tener respuesta sobre el caso CAP-494106-Z4C4D8,_x000a_correspondiente a la factura 14-843 (UTE Amarga Chica), la cual ya se encuentra_x000a_vencida y por lo que debe ser cancelada a la brevedad._x000a__x000a_ _x000a__x000a_Aguardamos sus comentarios._x000a__x000a_ _x000a__x000a_Muchas gracias._x000a__x000a_ _x000a__x000a_Saludos._x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_Tatiana G. Loza – Billing Coordinator  _x000a__x000a_NABORS INTERNATIONAL ARGENTINA S.R.L_x000a__x000a_tatiana.loza@nabors.com | www.nabors.com [http://www.nabors.com/]_x000a__x000a_[cid:image001.png@01DB6759.D38969F0]_x000a__x000a_ _x000a__x000a_From: Loza, Tatiana_x000a_Sent: Wednesday, December 4, 2024 9:17 AM_x000a_To: 'Facturación YPF' &lt;facturacion@proveedoresypf.com&gt;_x000a_Cc: Morelli, Manuel &lt;Manuel.Morelli@Nabors.com&gt;; Telmo, Leonardo_x000a_&lt;Leonardo.Telmo@Nabors.com&gt;_x000a_Subject: RE: Respuesta CAP-500660-Q3G6R3  - FC 00014A00000843 (1167)_x000a_YPF-CAP:0555000834_x000a__x000a_ _x000a__x000a_Estimados, buenos días._x000a__x000a_ _x000a__x000a_Por favor, necesitamos tener respuesta de este caso, la factura en cuestión ya_x000a_se encuentra vencido y por lo que debe ser cancelada a la brevedad._x000a__x000a_ _x000a__x000a_Muchas gracias._x000a__x000a_ _x000a__x000a_Saludos._x000a__x000a_ _x000a__x000a_Tatiana G. Loza – Billing Coordinator  _x000a__x000a_NABORS INTERNATIONAL ARGENTINA S.R.L_x000a__x000a_tatiana.loza@nabors.com | www.nabors.com [http://www.nabors.com/]_x000a__x000a_[cid:image001.png@01DB6759.D38969F0]_x000a__x000a_ _x000a__x000a_From: Loza, Tatiana_x000a_Sent: Tuesday, November 19, 2024 3:07 PM_x000a_To: 'Facturación YPF' &lt;facturacion@proveedoresypf.com&gt;_x000a_Cc: Morelli, Manuel &lt;Manuel.Morelli@Nabors.com&gt;; Telmo, Leonardo_x000a_&lt;Leonardo.Telmo@Nabors.com&gt;_x000a_Subject: RE: Respuesta CAP-500660-Q3G6R3  - FC 00014A00000843 (1167)_x000a_YPF-CAP:0555000834_x000a__x000a_ _x000a__x000a_Estimados, buenas tardes._x000a__x000a_ _x000a__x000a_¿Tendrán novedades respecto del procesamiento de esta factura? La misma ya se_x000a_encuentra vencida, por lo que necesitamos su cancelación a la brevedad._x000a__x000a_ _x000a__x000a_Muchas gracias._x000a__x000a_ _x000a__x000a_Saludos._x000a__x000a_ _x000a__x000a_Tatiana G. Loza – Billing Coordinator  _x000a__x000a_NABORS INTERNATIONAL ARGENTINA S.R.L_x000a__x000a_tatiana.loza@nabors.com | www.nabors.com [http://www.nabors.com/]_x000a__x000a_[cid:image001.png@01DB6759.D38969F0]_x000a__x000a_ _x000a__x000a_From: Loza, Tatiana Tatiana.Loza@nabors.com_x000a_Sent: Friday, November 15, 2024 11:43 AM_x000a_To: Facturación YPF facturacion@proveedoresypf.com_x000a_Cc: Morelli, Manuel Manuel.Morelli@Nabors.com; Telmo, Leonardo_x000a_Leonardo.Telmo@Nabors.com_x000a_Subject: RE: Respuesta CAP-500660-Q3G6R3  - FC 00014A00000843 (1167)_x000a_YPF-CAP:0555000834_x000a__x000a_ _x000a__x000a_Estimados, buenos días._x000a__x000a_ _x000a__x000a_Adjunto el mail de envío de la factura y el estado en AFIP. La factura se_x000a_encontraba procesada cuando consulté el 10/10 en Portal SAP (ver print), no_x000a_entiendo porque ahora no figura y en AFIP tiene como estado “rechazado”, sumado_x000a_a que no recibimos ningún mail de rechazo por parte de YPF._x000a__x000a_ _x000a__x000a_Por otro lado, ya habíamos generado un caso por esta factura, pero no tuvimos_x000a_respuesta (CAP-494106-Z4C4D8) _x000a__x000a_ _x000a__x000a_Por favor, les solicitamos procesar a la brevedad. Muchas gracias._x000a__x000a_ _x000a__x000a_[cid:image004.png@01DB6759.D38969F0][cid:image005.png@01DB6759.D38969F0]_x000a__x000a_ _x000a__x000a_[cid:image006.png@01DB6759.D38969F0]_x000a__x000a_ _x000a__x000a_[cid:image007.png@01DB6759.D38969F0]}_x000a__x000a_ _x000a__x000a_Saludos._x000a__x000a_ _x000a__x000a_Tatiana G. Loza – Billing Coordinator  _x000a__x000a_NABORS INTERNATIONAL ARGENTINA S.R.L_x000a__x000a_tatiana.loza@nabors.com | www.nabors.com [http://www.nabors.com/]_x000a__x000a_[cid:image001.png@01DB6759.D38969F0]_x000a__x000a_ _x000a__x000a_From: Facturación YPF &lt;facturacion@proveedoresypf.com&gt;_x000a_Sent: Friday, November 15, 2024 11:35 AM_x000a_To: Loza, Tatiana &lt;Tatiana.Loza@nabors.com&gt;_x000a_Subject: [EXT] Respuesta CAP-500660-Q3G6R3  - FC 00014A00000843 (1167)_x000a_YPF-CAP:0555000834_x000a__x000a_ _x000a__x000a_CAUTION! Email External to Nabors | ¡PRECAUCIÓN! Correo electrónico externo a_x000a_Nabors | تنبيه! بريد إلكتروني خارجي إلى نابورز_x000a__x000a_ _x000a__x000a_Estimada Tatiana,_x000a__x000a_ _x000a__x000a_En referencia a la gestión iniciada bajo el caso Nro CAP-500660-Q3G6R3 le_x000a_informamos:_x000a__x000a_ _x000a__x000a_La FC 0014A00000843 no figura contabilizada ni rechazada._x000a__x000a_ _x000a__x000a_Para poder gestionar un reclamo solicitando que se le informe el status de sus_x000a_documentos no contabilizados (ni rechazados), le pedimos por favor que envíe lo_x000a_siguiente:_x000a__x000a_ _x000a__x000a_ _x000a__x000a_-Mail que envió a Recepción de Facturas, éste debe ser el mail tal cual lo_x000a_envió, con el PDF de la factura. No se aceptarán documentos en formatos_x000a_editables. No se aceptan reenvíos, solo elementos de correo_x000a_electrónico adjuntos._x000a__x000a_-remitirnos una captura de pantalla de su portal AFIP donde se visualice de_x000a_forma clara el ESTADO del documento._x000a__x000a_ _x000a__x000a_ _x000a__x000a_De no cumplir con lo solicitado, no podemos dar curso al reclamo._x000a_Aclaración: Aconsejamos realizar los reclamos por el estado de sus facturas una_x000a_vez transcurridos los 15 días de realizada la presentación de su factura, a fin_x000a_de cumplir con los plazos necesarios para la registración._x000a__x000a_Solo se dará inicio al reclamo si pasaron 15 días corridos desde la presentación_x000a_del documento. _x000a__x000a_Se recomienda hacer el seguimiento de sus facturas a través de la Extranet o_x000a_AFIP respectivamente. _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a_De no tener respuesta en las siguientes 48 horas este caso será cancelado,_x000a_teniendo que enviar un nuevo correo a nuestro buzón si quiere retomarlo._x000a__x000a_ _x000a__x000a_ _x000a__x000a_Saludos,_x000a__x000a_CENTRO DE ATENCIÓN A PROVEEDORES YPF_x000a__x000a_ _x000a__x000a_[cid:image002.png@01DB6759.D38969F0]_x000a__x000a_Atención telefónica: 0810 122 9681 Opción 1  - Lun a vie de 9 a 18 horas_x000a__x000a_Extranet: https://portalsap.ypf.com/_x000a__x000a_Presentación de facturas: recepciondefacturas@ypf.com_x000a__x000a_ _x000a__x000a_[cid:image003.png@01DB6759.D38969F0]_x000a__x000a_ _x000a__x000a_INFORMACIÓN IMPORTANTE_x000a__x000a_ESTE BUZÓN NO ES DE RECEPCIÓN DE FACTURAS (por favor no nos ponga en copia en_x000a_sus presentaciones) _x000a__x000a_-  Buzón de Presentación de facturas: recepciondefacturas@ypf.com (No aplica_x000a_para las sociedades del grupo YPF Luz)_x000a__x000a_-  Extranet de Proveedores: https://portalsap.ypf.com/ (Si su mail no está_x000a_registrado,  pida el alta a Facturacion@proveedoresypf.com )_x000a__x000a_-  Formatos de presentación y más información_x000a_en https://proveedores.ypf.com/Pago-a-proveedores-preguntas-frecuentes.html_x000a__x000a_-  Legajos_x000a_impositivos: https://proveedores.ypf.com/certificados-e-informacion-impositiva.html_x000a__x000a_------------------- Mensaje original -------------------_x000a_De: Bot maker YPF &lt;botmaker@actionmail.app&gt;;_x000a_Recibido: Thu Nov 14 2024 12:57:54 GMT-0300 (hora estándar de Argentina)_x000a_Para: facturacion@proveedoresypf.com facturacion@proveedoresypf.com_x000a_&lt;facturacion@proveedoresypf.com&gt;; facturacion@proveedoresypf.com_x000a_&lt;facturacion@proveedoresypf.com&gt;; Facturacion &lt;facturacion@proveedoresypf.com&gt;;_x000a_Asunto: YBOT - Estado de Comprobantes - CUIT 33690244239_x000a__x000a_Hola, quiero saber el estado de mi/s comprobante/s:_x000a_Número/s de comprobante/s: 00014A00000843_x000a_Correo electrónico: tatiana.loza@nabors.com_x000a_Sociedad del grupo YPF a la que facturaron: UTE La Amarga Chica_x000a_Fecha/s de presentación: 07/10/2024_x000a__x000a_¡Saludos![http://url2118.actionmail.app/wf/open?upn=u001.otyO9U6HbGz0cVEZrQ4I-2FzQBbfSufCjXJvXpbnm7UlvZtMhOszgtjy0Mz4liKDTW4bjmWIDT3b4GtBIU3qCNBKTosBCXqOG-2FPLv15NhOCdzOpAe5G96XNX-2B-2FeHfHAqPl0HV-2BCA9y1vjInaF7aA2Z7PzEE4d6L-2FUX4-2FB5s0zQWfZb957O95XYRws7ae81aXpzcPxCgTib-2Bd-2FWrCCU2-2BpJdwJ6NxnMb8TZiynsVgFMgRU-3D]_x000a__x000a_AVISO LEGAL: Este mensaje y cualquier archivo anexo al mismo son privados y_x000a_confidenciales y está dirigido únicamente a su destinatario. Si usted no es el_x000a_destinatario original de este mensaje y por este medio pudo acceder a dicha_x000a_información por favor elimine el mismo. La distribución o copia de este mensaje_x000a_está estrictamente prohibida. Esta comunicación es sólo para propósitos de_x000a_información y no debe ser considerada como propuesta, aceptación, tratativas_x000a_contractuales, contrato preliminar ni como una declaración de voluntad oficial_x000a_por parte de YPF y/o subsidiarias y/o afiliadas y no genera responsabilidad_x000a_precontractual ni contractual alguna por su contenido y/o sus adjuntos. La_x000a_transmisión de estos mensajes a través de mensajería corporativa no garantiza_x000a_que el correo electrónico sea seguro o libre de error. Por consiguiente, no_x000a_manifestamos que esta información sea completa o precisa. Toda información está_x000a_sujeta a alterarse sin previo aviso. LEGAL NOTICE: The contents of this message_x000a_and any attachments are private and confidential and are intended for the_x000a_recipient only. If you are not the intended recipient of this message and_x000a_through this message you had access to this information, please delete it. The_x000a_distribution or copying of this message is strictly prohibited. This_x000a_communication is for information purposes only. It shall not be regarded as a_x000a_proposal, acceptance, contract negotiation, preliminary contract or official_x000a_statement of will by YPF and/or its subsidiaries and/or affiliates, and shall_x000a_not create any precontractual or contractual liability whatsoever with regard to_x000a_its contents and/or attachments. Email transmission cannot be guaranteed to be_x000a_secure or error-free. Therefore, we do not represent that this information is_x000a_complete or accurate. All information is subject to change without prior notice._x000a__x000a_*******************************_x000a_NABORS EMAIL NOTICE - This transmission may be strictly proprietary and_x000a_confidential.  If you are not the intended recipient, reading, disclosing,_x000a_copying, distributing or using the contents of this transmission is prohibited._x000a_If you have received this in error, please reply and notify the sender (only)_x000a_and delete the message. Unauthorized interception of this e-mail is a violation_x000a_of federal criminal law. This communication does not reflect an intention by the_x000a_sender or the sender's principal to conduct a transaction or make any agreement_x000a_by electronic means. Nothing contained in this message or in any attachment_x000a_shall satisfy the requirements for a writing, and nothing contained herein shall_x000a_constitute a contract or electronic signature under the Electronic Signatures in_x000a_Global and National Commerce Act, any version of the Uniform Electronic_x000a_Transactions Act, or any other statute governing electronic transactions._x000a__x000a_AVISO LEGAL: Este mensaje y cualquier archivo anexo al mismo son privados y_x000a_confidenciales y está dirigido únicamente a su destinatario. Si usted no es el_x000a_destinatario original de este mensaje y por este medio pudo acceder a dicha_x000a_información por favor elimine el mismo. La distribución o copia de este mensaje_x000a_está estrictamente prohibida. Esta comunicación es sólo para propósitos de_x000a_información y no debe ser considerada como propuesta, aceptación, tratativas_x000a_contractuales, contrato preliminar ni como una declaración de voluntad oficial_x000a_por parte de YPF y/o subsidiarias y/o afiliadas y no genera responsabilidad_x000a_precontractual ni contractual alguna por su contenido y/o sus adjuntos. La_x000a_transmisión de estos mensajes a través de mensajería corporativa no garantiza_x000a_que el correo electrónico sea seguro o libre de error. Por consiguiente, no_x000a_manifestamos que esta información sea completa o precisa. Toda información está_x000a_sujeta a alterarse sin previo aviso. LEGAL NOTICE: The contents of this message_x000a_and any attachments are private and confidential and are intended for the_x000a_recipient only. If you are not the intended recipient of this message and_x000a_through this message you had access to this information, please delete it. The_x000a_distribution or copying of this message is strictly prohibited. This_x000a_communication is for information purposes only. It shall not be regarded as a_x000a_proposal, acceptance, contract negotiation, preliminary contract or official_x000a_statement of will by YPF and/or its subsidiaries and/or affiliates, and shall_x000a_not create any precontractual or contractual liability whatsoever with regard to_x000a_its contents and/or attachments. Email transmission cannot be guaranteed to be_x000a_secure or error-free. Therefore, we do not represent that this information is_x000a_complete or accurate. All information is subject to change without prior notice._x000a__x000a_*******************************_x000a_NABORS EMAIL NOTICE - This transmission may be strictly proprietary and_x000a_confidential.  If you are not the intended recipient, reading, disclosing,_x000a_copying, distributing or using the contents of this transmission is prohibited._x000a_If you have received this in error, please reply and notify the sender (only)_x000a_and delete the message. Unauthorized interception of this e-mail is a violation_x000a_of federal criminal law. This communication does not reflect an intention by the_x000a_sender or the sender's principal to conduct a transaction or make any agreement_x000a_by electronic means. Nothing contained in this message or in any attachment_x000a_shall satisfy the requirements for a writing, and nothing contained herein shall_x000a_constitute a contract or electronic signature under the Electronic Signatures in_x000a_Global and National Commerce Act, any version of the Uniform Electronic_x000a_Transactions Act, or any other statute governing electronic transactions."/>
-    <x v="2"/>
+    <x v="4"/>
     <x v="0"/>
   </r>
   <r>
     <s v="SOLICITUD DE OP Y RETENCIONES"/>
     <s v="Buenos dias estimados._x000a_Solicito por favor las retenciones correspondientes al pago de la factura_x000a_2-11638._x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a_08/01/2025104238511INTERBANKING 454.188,91_x000a__x000a__x000a_Por otro lado registro las siguientes facturas vencidas pendientes de pago._x000a__x000a__x000a_Taraborelli PatagoniaA_x000a_EVANGELISTAFC-A-0003-0002204305/12/202404/01/2025 $           546.849,37_x000a_ $         546.849,37 Taraborelli PatagoniaA_x000a_EVANGELISTAFC-A-0002-0001170310/12/202409/01/2025 $           881.734,11_x000a_ $         881.734,11 Taraborelli PatagoniaA_x000a_EVANGELISTAFC-A-0003-0002211612/12/202411/01/2025 $           774.210,44_x000a_ $         774.210,44_x000a__x000a__x000a_Desde ya muchas gracias._x000a_Saludos, Agustin.-_x000a_Equipo de Finanzas y Cobranzas _x000a_☎ 0810-122-1700  📞 299-6832418_x000a_Agustín Amarilla _x000a_Lorena Riquelme - int. 106_x000a_Micaela Rosal - int. 140_x000a__x000a__x000a__x000a_[https://ci3.googleusercontent.com/mail-sig/AIorK4wQzZKRqVzZHgDRbzN1rUFT29cPKYBYMU3R8CYfD0BqY2DcMLs3YA4hpd9_CIcqBSGk5aXpzVU]_x000a__x000a__x000a__x000a_AVISO LEGAL:_x000a_Este mensaje de correo electrónico puede contener información confidencial o_x000a_legalmente protegida y está destinado únicamente para el uso del destinatario_x000a_(s) previsto. Cualquier divulgación, difusión, distribución, copia o la toma de_x000a_cualquier acción basada en la información aquí contenida está prohibido. Los_x000a_correos electrónicos no son seguros y no se puede garantizar que esté libre de_x000a_errores, ya que pueden ser interceptados, modificado, o contener virus._x000a_Cualquier persona que se comunica con nosotros por e-mail se considera que ha_x000a_aceptado estos riesgos. Taraborelli Patagonia S.A. no se hace responsable de los_x000a_errores u omisiones de este mensaje y niega cualquier responsabilidad por daños_x000a_derivados de la utilización del correo electrónico. Cualquier opinión y otra_x000a_declaración contenida en este mensaje y cualquier archivo adjunto son de_x000a_exclusiva responsabilidad del autor y no representan necesariamente las de la_x000a_empresa."/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Re: Fwd: Factura rechazada: 0007A00000660 YPF-CAP:0392003498"/>
@@ -3264,7 +3475,7 @@
   <r>
     <s v="Files attached to a message triggered a policy"/>
     <s v=" _x000a__x000a_Logo_x000a_[https://static-uk.mimecast.com/mimecast/resources/images/notifications/mimecast-logo-254x120.png]_x000a__x000a_ _x000a__x000a__x000a_FILES ATTACHED TO A MESSAGE TRIGGERED A POLICY_x000a__x000a_Contact your administrator if you need these files._x000a__x000a_ _x000a__x000a_Message Details_x000a__x000a_ _x000a__x000a_From_x000a__x000a_&quot;facturacion@proveedoresypf.com&quot; &lt;facturacion@proveedoresypf.com&gt;_x000a__x000a_To_x000a__x000a_Pedro Ibanez &lt;pedro.ibanez@globaldata.com&gt;_x000a__x000a_Subject_x000a__x000a_YPF-CAP:0541004255_x000a__x000a_Date_x000a__x000a_Wed, 15 Jan 2025 17:56:55 +0000_x000a__x000a_Policy_x000a__x000a_Default Attachment Management Definition - Block Dangerous File Types_x000a__x000a_Status_x000a__x000a_The message has been placed on HOLD - action required_x000a__x000a_ _x000a__x000a_File Details_x000a__x000a_ _x000a__x000a_- Attachment Policy (Default Attachment Management Definition - Block Dangerous_x000a_File Types)_x000a__x000a_Attachment Name: image.png_x000a_Policy Name: Default Attachment Management Definition - Block Dangerous File_x000a_Types_x000a_Detected as: png_x000a_Size: 58678 bytes_x000a_Action Taken: HOLD (Entire Message Held for Review)_x000a_Reason: Possible QR Image (100% probability), https://walink[.]co/013024_x000a__x000a__x000a_ _x000a__x000a_ _x000a__x000a_[https://static-uk.mimecast.com/mimecast/resources/images/notifications/powered-mimecast-logo-278x28.png]_x000a__x000a_ _x000a__x000a_© 2003 - 2025 Mimecast Services Limited and affiliates._x000a__x000a_ _x000a__x000a_                                                           "/>
-    <x v="4"/>
+    <x v="2"/>
     <x v="0"/>
   </r>
   <r>
@@ -3306,7 +3517,7 @@
   <r>
     <s v="FC 4768 Y FC310"/>
     <s v="Buenas tardes estimados!!_x000a__x000a__x000a__x000a__x000a_Nos podrían confirmar una fecha estimada de pago de las siguientes facturas:_x000a__x000a_[cid:part1.oro89BY5.7fEONI6C@dainippon.com.ar]_x000a__x000a__x000a__x000a__x000a_Desde ya muchas gracias!_x000a__x000a__x000a__x000a__x000a_Saludos_x000a__x000a__x000a_-- _x000d__x000a_Romina Laime_x000d__x000a__x000d__x000a_DAINIPPON ELECTRONIC S.A._x000d__x000a__x000d__x000a_Tucumán 540 – Piso 7° F_x000d__x000a_C1049AAL – Buenos Aires_x000d__x000a_ Argentina_x000d__x000a__x000d__x000a_ rlaime@dainippon.com.arrlaime@dainippon.com.ar_x000d__x000a__x000d__x000a_+54 011 4394 8467_x000d__x000a_+54 011 4394 0394"/>
-    <x v="2"/>
+    <x v="4"/>
     <x v="0"/>
   </r>
   <r>
@@ -3324,43 +3535,43 @@
   <r>
     <s v="CONSULTA FECHA DE PAGO BW - YPF"/>
     <s v="Buenas tardes, como están?_x000a_Soy Anabella del área de finanzas de BW COMUNICACIÓN INTERNA SRL (CUIT_x000a_30-70867996-4)_x000a_Quería consultarles si contamos con fecha cierta de pago por las siguientes_x000a_facturas?_x000a__x000a_N° 0006A00001703 y N° 0006A00001315_x000a__x000a__x000a__x000a__x000a_EMISION_x000a__x000a_EMPRESA_x000a__x000a_N° COMPROBANTE_x000a__x000a_IMPORTE_x000a__x000a_23/12/2024_x000a__x000a_YPF SOCIEDAD ANONIMA_x000a__x000a_A-00006-00001703_x000a__x000a_ $               873.080,96_x000a__x000a_23/12/2024_x000a__x000a_YPF SOCIEDAD ANONIMA_x000a__x000a_A-00006-00001315_x000a__x000a_ $          10.757.782,10_x000a__x000a_ _x000a__x000a_Aguardo novedades._x000a_Muchas gracias!_x000a_Saludos,_x000a__x000a_[cid:image001.png@01DB674E.0CC5A0F0] _x000a__x000a_Anabella De Vita_x000a__x000a_Asistente administrativa_x000a__x000a_― _x000a__x000a_www.bwcomunicacion.com [http://www.bwcomunicacion.com/] _x000a__x000a_AGENCIA Y CONSULTORA DE COMUNICACIÓN INTERNA _x000a__x000a_Conectamos personas para crear mejores empresas. _x000a__x000a_ _x000a__x000a_ "/>
-    <x v="2"/>
+    <x v="4"/>
     <x v="0"/>
   </r>
   <r>
     <s v="Re: YPF-CAP:0541004249"/>
     <s v="Muchas gracias por la información solicitada, nos es de mucha utilidad._x000a__x000a__x000a_Cálidos saludos!_x000a__x000a__x000a__x000a__x000a__x000a__x000a_Florencia Foresi_x000a__x000a__x000a__x000a__x000a_Recepción_x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a_SENSOTEC S.A._x000a__x000a_Estomba 831 (C1427COS)_x000a__x000a_Buenos Aires - Argentina_x000a__x000a_Tel: +54 11 4551-5995_x000a__x000a_www.sensotec.com.ar [http://www.sensotec.com.ar/]_x000a__x000a_ _x000a__x000a_https://lh4.googleusercontent.com/AGTZw801U2EhLyks4ZXVi7eRfl0bUb0G35cad6xeoAp0qddyxebcmHh4HNhyHOSFlPNYk415jsBOuQZ85wS0TuUwkwiAKRY8BD1Blzte9LOJmtYY7MAy_BR8Ss8dwcThAk7aSuR5_x000a_[cid:image002.png@01D9319D.F1B1D410] [http://www.sensotec.com.ar/]_x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a__x000a_El mié, 15 ene 2025 a las 14:05, Facturación YPF_x000a_(&lt;facturacion@proveedoresypf.com&gt;) escribió:_x000a__x000a_&gt; Estimada, _x000a_&gt; _x000a_&gt; Se le adjunta la documentación solicitada._x000a_&gt; _x000a_&gt; Asimismo, le informamos que tiene un doc. MD/ Multa (1000467307) aplicada._x000a_&gt; Leyenda: &quot;Multa pedido 4000185747 HE 5007774884&quot;_x000a_&gt;  _x000a_&gt; Se le adjunta el documento correspondiente. _x000a_&gt; _x000a_&gt; Si tiene alguna consulta con respecto a los motivos de la misma, deberá_x000a_&gt; comunicarse con el sector contratante o el que certifica el contrato._x000a_&gt;  _x000a_&gt; Saludos._x000a_&gt; _x000a_&gt; [cid:ii_1946b371aa6cb971f161]_x000a_&gt; CENTRO DE ATENCIÓN A PROVEEDORES YPF_x000a_&gt;  _x000a_&gt; Atención telefónica: 0810 122 9681 Opción 1  - Lun a vie de 9 a 18 horas_x000a_&gt; Extranet: https://portalsap.ypf.com/_x000a_&gt; Presentación de facturas: recepciondefacturas@ypf.com_x000a_&gt;  _x000a_&gt; [cid:ii_1946b371aa6cb971f162]_x000a_&gt;  _x000a_&gt; INFORMACIÓN IMPORTANTE_x000a_&gt; ESTE BUZÓN NO ES DE RECEPCIÓN DE FACTURAS (por favor no nos ponga en copia en_x000a_&gt; sus presentaciones) _x000a_&gt; -  Buzón de Presentación de facturas: recepciondefacturas@ypf.com (No aplica_x000a_&gt; para las sociedades del grupo YPF Luz)_x000a_&gt; -  Extranet de Proveedores: https://portalsap.ypf.com/ (Si su mail no está_x000a_&gt; registrado,  pida el alta a Facturacion@proveedoresypf.com )_x000a_&gt; -  Formatos de presentación y más información_x000a_&gt; en https://proveedores.ypf.com/Pago-a-proveedores-preguntas-frecuentes.html_x000a_&gt; -  Legajos_x000a_&gt; impositivos: https://proveedores.ypf.com/certificados-e-informacion-impositiva.html_x000a_&gt; AVISO LEGAL: Este mensaje y cualquier archivo anexo al mismo son privados y_x000a_&gt; confidenciales y está dirigido únicamente a su destinatario. Si usted no es el_x000a_&gt; destinatario original de este mensaje y por este medio pudo acceder a dicha_x000a_&gt; información por favor elimine el mismo. La distribución o copia de este_x000a_&gt; mensaje está estrictamente prohibida. Esta comunicación es sólo para_x000a_&gt; propósitos de información y no debe ser considerada como propuesta,_x000a_&gt; aceptación, tratativas contractuales, contrato preliminar ni como una_x000a_&gt; declaración de voluntad oficial por parte de YPF y/o subsidiarias y/o_x000a_&gt; afiliadas y no genera responsabilidad precontractual ni contractual alguna por_x000a_&gt; su contenido y/o sus adjuntos. La transmisión de estos mensajes a través de_x000a_&gt; mensajería corporativa no garantiza que el correo electrónico sea seguro o_x000a_&gt; libre de error. Por consiguiente, no manifestamos que esta información sea_x000a_&gt; completa o precisa. Toda información está sujeta a alterarse sin previo aviso._x000a_&gt; LEGAL NOTICE: The contents of this message and any attachments are private and_x000a_&gt; confidential and are intended for the recipient only. If you are not the_x000a_&gt; intended recipient of this message and through this message you had access to_x000a_&gt; this information, please delete it. The distribution or copying of this_x000a_&gt; message is strictly prohibited. This communication is for information purposes_x000a_&gt; only. It shall not be regarded as a proposal, acceptance, contract_x000a_&gt; negotiation, preliminary contract or official statement of will by YPF and/or_x000a_&gt; its subsidiaries and/or affiliates, and shall not create any precontractual or_x000a_&gt; contractual liability whatsoever with regard to its contents and/or_x000a_&gt; attachments. Email transmission cannot be guaranteed to be secure or_x000a_&gt; error-free. Therefore, we do not represent that this information is complete_x000a_&gt; or accurate. All information is subject to change without prior notice."/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Auto: (was: YPF-CAP:0541004259)"/>
+    <s v="Me encuentro de licencia hasta el día 12/01/24. En caso de requerir contactarse_x000a_favor de reenviar correo a: kprestia@dainippon.com.ar_x000a__x000a__x000a__x000a__x000a_-- _x000d__x000a_Romina Laime_x000d__x000a__x000d__x000a_DAINIPPON ELECTRONIC S.A._x000d__x000a__x000d__x000a_Tucumán 540 – Piso 7° F_x000d__x000a_C1049AAL – Buenos Aires_x000d__x000a_ Argentina_x000d__x000a__x000d__x000a_ rlaime@dainippon.com.arrlaime@dainippon.com.ar_x000d__x000a__x000d__x000a_+54 011 4394 8467_x000d__x000a_+54 011 4394 0394"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Consulta orden de pago - Del Plata Ingeniería S.A."/>
+    <s v="Buenas tardes, mi nombre es Juan Ignacio, les escribo de Del Plata Ingenieria_x000a_S.A. Cuit: 30-69260696-1._x000a__x000a__x000a__x000a_El dia 26.12.2024 nos realizaron el siguiente pago._x000a__x000a__x000a_[cid:0.28873829620.4717974296246257219.1946b3c0b10__inline__img__src]_x000a__x000a__x000a__x000a_Quería consultar si nos podrían mandar la orden de pago, ya que nos parece raro_x000a_que no tenga retenciones cargadas y nos quedó un saldo por cobrar._x000a__x000a__x000a__x000a_Muchas gracias._x000a__x000a__x000a__x000a_[cid:1.28873829620.7288061683244540886.1946b3c0b10__inline__img__src]_x000a__x000a_Juan Ignacio Bonifazi_x000a_Analista de Facturación y Cobranzas_x000a_Cel:_x000a_www.dpisa.com.ar [http://www.dpisa.com.ar/]_x000a__x000a__x000a_[cid:2.28873829620.7494255550230078666.1946b3c0b10__inline__img__src]_x000a__x000a__x000a__x000a_"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Consulta acceso Del Plata Ingenieria Austral"/>
+    <s v="&gt; Buen día, espero que se encuentren bien!_x000a_&gt; _x000a_&gt; _x000a_&gt; _x000a_&gt; Les escribo de Del Plata Ingeniería,_x000a_&gt; _x000a_&gt; _x000a_&gt; _x000a_&gt; Nosotros podemos acceder sin problemas al portal para consultar pagos de Del_x000a_&gt; Plata Ingeniería S.A.:_x000a_&gt; _x000a_&gt; usuario: jolivares@dpisa.com.ar_x000a_&gt; _x000a_&gt; contraseña: Tigresa7_x000a_&gt; _x000a_&gt; _x000a_&gt; _x000a_&gt; Pero en Del Plata Ingenieria Autral S.A. (CUIT 30710984006) no podemos_x000a_&gt; ingresar ya que no tenemos acceso al mail con el que estábamos registrados_x000a_&gt; porque esta persona no pertenece más a la empresa: lfernandez@dpisa.com.ar_x000a_&gt; _x000a_&gt; _x000a_&gt; _x000a_&gt; Queria saber como podemos ingresar para consultar los pagos de Del Plata_x000a_&gt; Ingenieria Austral, si podemos gestionar un nuevo usuario o agregar al_x000a_&gt; usuario jolivares@dpisa.com.ar el acceso también a la otra cuenta._x000a_&gt; _x000a_&gt; _x000a_&gt; _x000a_&gt; Muchas gracias!_x000a_&gt; _x000a_&gt; _x000a_&gt; _x000a_&gt; _x000a_&gt; [cid:0.28873824440.754332274613737423.1946ab5c2a5__inline__img__src]_x000a_&gt; _x000a_&gt; Juan Ignacio Bonifazi_x000a_&gt; Analista de Facturación y Cobranzas_x000a_&gt; Cel:_x000a_&gt; www.dpisa.com.ar [http://www.dpisa.com.ar/]_x000a_&gt; _x000a_&gt; _x000a_&gt; [cid:1.28873824440.1340335054609618804.1946ab5c2a5__inline__img__src]_x000a__x000a__x000a__x000a_"/>
     <x v="8"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Auto: (was: YPF-CAP:0541004259)"/>
-    <s v="Me encuentro de licencia hasta el día 12/01/24. En caso de requerir contactarse_x000a_favor de reenviar correo a: kprestia@dainippon.com.ar_x000a__x000a__x000a__x000a__x000a_-- _x000d__x000a_Romina Laime_x000d__x000a__x000d__x000a_DAINIPPON ELECTRONIC S.A._x000d__x000a__x000d__x000a_Tucumán 540 – Piso 7° F_x000d__x000a_C1049AAL – Buenos Aires_x000d__x000a_ Argentina_x000d__x000a__x000d__x000a_ rlaime@dainippon.com.arrlaime@dainippon.com.ar_x000d__x000a__x000d__x000a_+54 011 4394 8467_x000d__x000a_+54 011 4394 0394"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Consulta orden de pago - Del Plata Ingeniería S.A."/>
-    <s v="Buenas tardes, mi nombre es Juan Ignacio, les escribo de Del Plata Ingenieria_x000a_S.A. Cuit: 30-69260696-1._x000a__x000a__x000a__x000a_El dia 26.12.2024 nos realizaron el siguiente pago._x000a__x000a__x000a_[cid:0.28873829620.4717974296246257219.1946b3c0b10__inline__img__src]_x000a__x000a__x000a__x000a_Quería consultar si nos podrían mandar la orden de pago, ya que nos parece raro_x000a_que no tenga retenciones cargadas y nos quedó un saldo por cobrar._x000a__x000a__x000a__x000a_Muchas gracias._x000a__x000a__x000a__x000a_[cid:1.28873829620.7288061683244540886.1946b3c0b10__inline__img__src]_x000a__x000a_Juan Ignacio Bonifazi_x000a_Analista de Facturación y Cobranzas_x000a_Cel:_x000a_www.dpisa.com.ar [http://www.dpisa.com.ar/]_x000a__x000a__x000a_[cid:2.28873829620.7494255550230078666.1946b3c0b10__inline__img__src]_x000a__x000a__x000a__x000a_"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Consulta acceso Del Plata Ingenieria Austral"/>
-    <s v="&gt; Buen día, espero que se encuentren bien!_x000a_&gt; _x000a_&gt; _x000a_&gt; _x000a_&gt; Les escribo de Del Plata Ingeniería,_x000a_&gt; _x000a_&gt; _x000a_&gt; _x000a_&gt; Nosotros podemos acceder sin problemas al portal para consultar pagos de Del_x000a_&gt; Plata Ingeniería S.A.:_x000a_&gt; _x000a_&gt; usuario: jolivares@dpisa.com.ar_x000a_&gt; _x000a_&gt; contraseña: Tigresa7_x000a_&gt; _x000a_&gt; _x000a_&gt; _x000a_&gt; Pero en Del Plata Ingenieria Autral S.A. (CUIT 30710984006) no podemos_x000a_&gt; ingresar ya que no tenemos acceso al mail con el que estábamos registrados_x000a_&gt; porque esta persona no pertenece más a la empresa: lfernandez@dpisa.com.ar_x000a_&gt; _x000a_&gt; _x000a_&gt; _x000a_&gt; Queria saber como podemos ingresar para consultar los pagos de Del Plata_x000a_&gt; Ingenieria Austral, si podemos gestionar un nuevo usuario o agregar al_x000a_&gt; usuario jolivares@dpisa.com.ar el acceso también a la otra cuenta._x000a_&gt; _x000a_&gt; _x000a_&gt; _x000a_&gt; Muchas gracias!_x000a_&gt; _x000a_&gt; _x000a_&gt; _x000a_&gt; _x000a_&gt; [cid:0.28873824440.754332274613737423.1946ab5c2a5__inline__img__src]_x000a_&gt; _x000a_&gt; Juan Ignacio Bonifazi_x000a_&gt; Analista de Facturación y Cobranzas_x000a_&gt; Cel:_x000a_&gt; www.dpisa.com.ar [http://www.dpisa.com.ar/]_x000a_&gt; _x000a_&gt; _x000a_&gt; [cid:1.28873824440.1340335054609618804.1946ab5c2a5__inline__img__src]_x000a__x000a__x000a__x000a_"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
     <s v="YBOT - Estado de Comprobantes - CUIT 30715080083"/>
     <s v="Hola, quiero saber el estado de mi/s comprobante/s:_x000a_Número/s de comprobante/s: 00001A00001451_x000a_Correo electrónico: glorenzo@vonharv.com_x000a_Sociedad del grupo YPF a la que facturaron: YPF TECNOLOGÍA SA_x000a_Fecha/s de presentación: 11-12-2024_x000a__x000a_¡Saludos![http://url2118.actionmail.app/wf/open?upn=u001.otyO9U6HbGz0cVEZrQ4I-2FzQBbfSufCjXJvXpbnm7Ulur1Aq3Z3e1h83lPjwyW8Uyqxxp9obzQpO-2BvMKSyimaovCRJVbC6EUBO-2FvAp1GLwgJpr2BUHdqM3PcgTAPHekWnfOX0QgBsy8Obnh9UoyV9nyfBfMcG88HW6C760-2FLaJIRxtGgt4uY2Gk56edsZGEXcXtfwNDmpOrZtxT-2BgBCn0Z1-2FbL7WTdrMNRbPESIzhtYc-3D]"/>
-    <x v="2"/>
+    <x v="4"/>
     <x v="0"/>
   </r>
   <r>
     <s v="YBOT - Estado de Comprobantes - CUIT 30715080083"/>
     <s v="Hola, quiero saber el estado de mi/s comprobante/s:_x000a_Número/s de comprobante/s: 0001A00000050_x000a_Correo electrónico: glorenzo@vonharv.com_x000a_Sociedad del grupo YPF a la que facturaron: YPF SA_x000a_Fecha/s de presentación: 12-12-2024_x000a__x000a_¡Saludos![http://url2118.actionmail.app/wf/open?upn=u001.otyO9U6HbGz0cVEZrQ4I-2FzQBbfSufCjXJvXpbnm7UlvEpdg9AbIpHBoYuwSEAORDLFd1vXr3bXRSW70FledVoIs-2F-2FX-2F-2F0VgDteqwda-2FPaAtmtckA6kOn4KAXRFovYBk-2FreonO8VhrhMKJF1pUJBB962hoafFRVa4VOdVheKANPVG2URD3Q4wn6xVWlnKpl3L12Fkde11GsUP-2BVwBwrjy5c1tusYKWdD5-2FR56UE-2B3r-2FQ-3D]"/>
-    <x v="2"/>
+    <x v="4"/>
     <x v="0"/>
   </r>
   <r>
@@ -3378,8 +3589,8 @@
   <r>
     <s v="JICEC S.A 30612846436      YPF S.A "/>
     <s v="BUENAS TADES NECESTIO LOS REENCIONES DE LAS FACURAS 006-434_x000a__x000a_006-210 CORRE4SPONDEN A KJICEC S.A   30612846436_x000a__x000a_ _x000a__x000a_Muchas gracias y saludos,_x000a__x000a_ _x000a__x000a_   [cid:image001.png@01DB6765.BD264000]     [cid:image002.png@01DB6765.BD264000]_x000a__x000a_ _x000a_Analia Florio_x000a_JICEC S.A. / DIADEMA ENGINE_x000a_Gerente Administrativa_x000a_Parque Industrial Tecnológico Quilmes (PITQ)_x000a_Camino General Belgrano Km 10,5_x000a_Nave 4 C.P. B1883HOA-BERNAL_x000a_TEL: +54 911 3976-6013  Int:101 ; CEL:+54 [TEL:+54] 11 3086-9685_x000a__x000a_analia.florio@diademaengine.com_x000a__x000a_www.diademaengine.com [http://www.diademaengine.com]_x000a__x000a_ "/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Retenciones Ford"/>
@@ -3390,8 +3601,8 @@
   <r>
     <s v="RV: FCE S/OC 4000189237"/>
     <s v=" _x000a__x000a_Buenas tardes._x000a__x000a_ _x000a__x000a_Nos tenemos registro de pago de esta FCE._x000a__x000a_ _x000a__x000a_Aguardamos respuesta._x000a__x000a_ _x000a__x000a_Saludos_x000a__x000a_ _x000a__x000a_Carina de la Encina_x000a__x000a_Accounting_x000a__x000a_ _x000a__x000a_[cid:image001.gif@01DB3678.341F17F0]_x000a_SOLIDSTATE CONTROLS_x000a_Olive 1954 | (S2013BMZ) Rosario, Santa Fe,_x000a_Argentina | www.solidstatecontrolsinc.com_x000a_[http://www.solidstatecontrolsinc.com/]_x000a__x000a_TE: +54 341 4553332 Int. 100 | Mobil: +54 9341_x000a_3987070 | Carina.encina@ametek.com_x000a__x000a_ _x000a__x000a_ _x000a__x000a_[cid:image002.png@01DB3678.341F17F0]_x000a_[https://www.facebook.com/ameteksolidstatecontrols]        _x000a_[cid:image003.png@01DB3678.341F17F0] [https://twitter.com/ameteksci]        _x000a_[cid:image004.jpg@01DB3678.341F17F0]_x000a_[https://www.linkedin.com/company/solidstate-controls-inc?trk=top_nav_home]        _x000a_[cid:image005.png@01DB3678.341F17F0]_x000a_[https://www.youtube.com/channel/UCKQW-MyBKkZ032UilszVmLw]_x000a__x000a_ _x000a__x000a_De: Carina Encina_x000a_Enviado el: jueves, 14 de noviembre de 2024 10:42_x000a_Para: RECEPCION DE FACTURAS &lt;recepciondefacturas@ypf.com&gt;_x000a_Asunto: FCE S/OC 4000189237_x000a__x000a_ _x000a__x000a_Buen día_x000a__x000a_ _x000a__x000a_Se adjunta FCE y EM s/OC 4000189237_x000a__x000a_ _x000a__x000a_Saludos_x000a__x000a_ _x000a__x000a_Carina de la Encina_x000a__x000a_Accounting_x000a__x000a_ _x000a__x000a_[cid:image001.gif@01DB3678.341F17F0]_x000a_SOLIDSTATE CONTROLS_x000a_Olive 1954 | (S2013BMZ) Rosario, Santa Fe,_x000a_Argentina | www.solidstatecontrolsinc.com_x000a_[http://www.solidstatecontrolsinc.com/]_x000a__x000a_TE: +54 341 4553332 Int. 100 | Mobil: +54 9341_x000a_3987070 | Carina.encina@ametek.com_x000a__x000a_ _x000a__x000a_ _x000a__x000a_[cid:image002.png@01DB3678.341F17F0]_x000a_[https://www.facebook.com/ameteksolidstatecontrols]        _x000a_[cid:image003.png@01DB3678.341F17F0] [https://twitter.com/ameteksci]        _x000a_[cid:image004.jpg@01DB3678.341F17F0]_x000a_[https://www.linkedin.com/company/solidstate-controls-inc?trk=top_nav_home]        _x000a_[cid:image005.png@01DB3678.341F17F0]_x000a_[https://www.youtube.com/channel/UCKQW-MyBKkZ032UilszVmLw]_x000a__x000a_ "/>
-    <x v="5"/>
-    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="COMPROBANTES DE PAGO: TIXO S.A.    CUIT: 30-70977490-1"/>
@@ -3408,31 +3619,31 @@
   <r>
     <s v="ASM CONSTRUCCIONES CUIT 33708800959 YPF GAS - FACTURA NO RECEPCIONADA"/>
     <s v="Buenas tardes estimados,_x000a__x000a__x000a_Les consulto por el estado de la factura 804 ya que no se encuentra recepcionada_x000a_en la extranet ni rechazada en AFIP superando el tiempo máximo de recepción e_x000a_ingresando en fecha de vencimiento._x000a__x000a__x000a_La misma fue enviada en tiempo y forma tal cual podrán visualizar en los_x000a_adjuntos._x000a__x000a__x000a_Adjunto al correo:_x000a_-Correo enviado el día 16/12/2024_x000a_-Factura 804_x000a_-Print de pantalla del estado de la fc en AFIP_x000a__x000a__x000a_image.png [cid:ii_m5y9we172]_x000a__x000a__x000a__x000a__x000a__x000a_Quedo al aguardo de una respuesta,_x000a__x000a__x000a_Saludos._x000a__x000a_[cid:image001.png@01DAB0E4.0BDCC220]_x000a__x000a_      MARINA SAYAGO_x000a__x000a_      Administración ASM Servicios_x000a__x000a_[cid:image002.png@01DAB0E4.0BDCC220]  1162680274_x000a__x000a_[cid:image003.png@01DAB0E4.0BDCC220]  www.asmconstrucciones.com.ar_x000a_[http://www.asmconstrucciones.com.ar/]_x000a__x000a_[cid:image004.png@01DAB0E4.0BDCC220]_x000a_[https://www.google.com.ar/maps/place/Galv%C3%A1n+3465,+Buenos+Aires/@-34.5631159,-58.4926892,17z/data=!3m1!4b1!4m6!3m5!1s0x95bcb6f3ee8fd049:0x175f0d003d666690!8m2!3d-34.5631203!4d-58.4905005!16s%2Fg%2F11flz11m55]  [cid:image005.png@01DAB0E4.0BDCC220]_x000a_[https://www.instagram.com/asm_construcciones/]  [cid:image006.png@01DAB0E4.0BDCC220]_x000a_[https://www.facebook.com/profile.php?id=100091683463801]  [cid:image007.png@01DAB0E4.0BDCC220]_x000a_[https://www.linkedin.com/company/asm-construcciones_2/]  _x000a__x000a__x000a_"/>
-    <x v="2"/>
+    <x v="4"/>
     <x v="0"/>
   </r>
   <r>
     <s v="Re: YPF-CAP:0541004145"/>
     <s v="lamentablemente seguimos sin respuesta a nuestro pedido_x000a__x000a_El vie, 10 ene 2025 a la(s) 9:27 a.m., Facturación YPF_x000a_(facturacion@proveedoresypf.com) escribió:_x000a__x000a_&gt; Estimada, _x000a_&gt; _x000a_&gt; Continuando con lo hablado telefónicamente, le informamos que estaremos_x000a_&gt; buscando la manera de que puedan darle una respuesta con respecto a sus_x000a_&gt; reclamos. _x000a_&gt; _x000a_&gt; Ambos casos derivados se encuentran en espera de una resolución. Por tal_x000a_&gt; motivo, seguiremos insistiendo para que se pueda regularizar esta situación._x000a_&gt;  _x000a_&gt; Saludos._x000a_&gt; _x000a_&gt; [cid:ii_1946b605f0dcb971f161]_x000a_&gt; CENTRO DE ATENCIÓN A PROVEEDORES YPF_x000a_&gt;  _x000a_&gt; Atención telefónica: 0810 122 9681 Opción 1  - Lun a vie de 9 a 18 horas_x000a_&gt; Extranet: https://portalsap.ypf.com/_x000a_&gt; Presentación de facturas: recepciondefacturas@ypf.com_x000a_&gt;  _x000a_&gt; [cid:ii_1946b605f0dcb971f162]_x000a_&gt;  _x000a_&gt; INFORMACIÓN IMPORTANTE_x000a_&gt; ESTE BUZÓN NO ES DE RECEPCIÓN DE FACTURAS (por favor no nos ponga en copia en_x000a_&gt; sus presentaciones) _x000a_&gt; -  Buzón de Presentación de facturas: recepciondefacturas@ypf.com (No aplica_x000a_&gt; para las sociedades del grupo YPF Luz)_x000a_&gt; -  Extranet de Proveedores: https://portalsap.ypf.com/ (Si su mail no está_x000a_&gt; registrado,  pida el alta a Facturacion@proveedoresypf.com )_x000a_&gt; -  Formatos de presentación y más información_x000a_&gt; en https://proveedores.ypf.com/Pago-a-proveedores-preguntas-frecuentes.html_x000a_&gt; -  Legajos_x000a_&gt; impositivos: https://proveedores.ypf.com/certificados-e-informacion-impositiva.html_x000a_&gt; AVISO LEGAL: Este mensaje y cualquier archivo anexo al mismo son privados y_x000a_&gt; confidenciales y está dirigido únicamente a su destinatario. Si usted no es el_x000a_&gt; destinatario original de este mensaje y por este medio pudo acceder a dicha_x000a_&gt; información por favor elimine el mismo. La distribución o copia de este_x000a_&gt; mensaje está estrictamente prohibida. Esta comunicación es sólo para_x000a_&gt; propósitos de información y no debe ser considerada como propuesta,_x000a_&gt; aceptación, tratativas contractuales, contrato preliminar ni como una_x000a_&gt; declaración de voluntad oficial por parte de YPF y/o subsidiarias y/o_x000a_&gt; afiliadas y no genera responsabilidad precontractual ni contractual alguna por_x000a_&gt; su contenido y/o sus adjuntos. La transmisión de estos mensajes a través de_x000a_&gt; mensajería corporativa no garantiza que el correo electrónico sea seguro o_x000a_&gt; libre de error. Por consiguiente, no manifestamos que esta información sea_x000a_&gt; completa o precisa. Toda información está sujeta a alterarse sin previo aviso._x000a_&gt; LEGAL NOTICE: The contents of this message and any attachments are private and_x000a_&gt; confidential and are intended for the recipient only. If you are not the_x000a_&gt; intended recipient of this message and through this message you had access to_x000a_&gt; this information, please delete it. The distribution or copying of this_x000a_&gt; message is strictly prohibited. This communication is for information purposes_x000a_&gt; only. It shall not be regarded as a proposal, acceptance, contract_x000a_&gt; negotiation, preliminary contract or official statement of will by YPF and/or_x000a_&gt; its subsidiaries and/or affiliates, and shall not create any precontractual or_x000a_&gt; contractual liability whatsoever with regard to its contents and/or_x000a_&gt; attachments. Email transmission cannot be guaranteed to be secure or_x000a_&gt; error-free. Therefore, we do not represent that this information is complete_x000a_&gt; or accurate. All information is subject to change without prior notice."/>
-    <x v="2"/>
+    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
     <s v="PETROHARD SRL CUIT 30-70956579-2 YPF"/>
     <s v="Estimados,_x000a__x000a_ _x000a__x000a_Escribo de PetroHard SRL Cuit: 30-70956579-2. _x000a__x000a_Quería consultar por pago correspondiente a las siguientes facturas ya vencidas:_x000a__x000a_-          Factura 00003-00000012 fecha factura: 09/12/2024_x000a__x000a_-          Factura 00003-00000013 fecha factura: 09/12/2024_x000a__x000a_ _x000a__x000a_Se facturó a Cuit: 30546689979 YPF SOCIEDAD ANONIMA_x000a__x000a_ _x000a__x000a_Muchas gracias_x000a__x000a_Saludos,_x000a__x000a_Descripción: PUNTA PETRO [cid:image001.png@01DB6769.6E68F1C0]_x000a__x000a_ _x000a__x000a_ _x000a__x000a_ _x000a__x000a__x000a__x000a__x000a_[https://ipmcdn.avast.com/images/icons/icon-envelope-tick-round-orange-animated-no-repeat-v1.gif]_x000a_[https://www.avast.com/sig-email?utm_medium=email&amp;utm_source=link&amp;utm_campaign=sig-email&amp;utm_content=emailclient]Libre_x000a_de virus. www.avast.com_x000a_[https://www.avast.com/sig-email?utm_medium=email&amp;utm_source=link&amp;utm_campaign=sig-email&amp;utm_content=emailclient]"/>
-    <x v="2"/>
+    <x v="4"/>
     <x v="0"/>
   </r>
   <r>
     <s v="Consulta FC-A-0006-00004890"/>
     <s v="Buenas tardes estimados,_x000a__x000a_ _x000a__x000a_Solicito por favor estado y fecha de pago de la FC-A-0006-00004890._x000a__x000a_ _x000a__x000a_Aguardo sus comentarios._x000a__x000a_ _x000a__x000a_Saludos cordiales._x000a__x000a_ _x000a__x000a_ _x000a__x000a_LAURA GEBEROVICH_x000a__x000a_email: lgeberovich@ruhrpumpen.com_x000a__x000a_phone: +54 011 5111-0215_x000a__x000a_Buenos Aires, Argentina_x000a__x000a_[cid:image001.jpg@01DB6769.E6FB2F90]_x000a__x000a_ _x000a__x000a_         Website_x000a_[https://linkprotect.cudasvc.com/url?a=http%3a%2f%2fwww.ruhrpumpen.com%2f%3futm_source%3dsignature%26utm_medium%3demail%26utm_campaign%3demailsignature&amp;c=E,1,FU_TaSr2HHgg6FCGUMWWCtVlAIXXnVKW4XS6g4J68Glm-RPJ4jA6tv1ucmrpkhYrmpxuD5qxU0FQJcSf_eunM5-KlmJKAzd7rbUJHx4XfvPlOnA8DfnQ&amp;typo=1]    _x000a_|     Facebook [https://www.facebook.com/Ruhrpumpen]     |     Twitter_x000a_[https://twitter.com/ruhrpumpen]     |     LinkedIn_x000a_[https://www.linkedin.com/company/ruhrpumpen]_x000a__x000a_ _x000a__x000a_DISCLAIMER: The information contained in this email, and attachment(s) thereto,_x000a_is confidential. It may also be privileged or otherwise protected by_x000a_attorney-client privileged communication, work-product immunity or other legal_x000a_rules. If you have received it by mistake, you are hereby notified that any_x000a_dissemination, distribution or copying of this message is strictly prohibited,_x000a_please let us know by email reply and delete it from your system. Thank You!_x000a__x000a_ _x000a__x000a_ _x000a__x000a_ "/>
-    <x v="2"/>
+    <x v="4"/>
     <x v="0"/>
   </r>
   <r>
     <s v="Factura vencida"/>
     <s v="Buenas tardes._x000a_Adjunto factura vencida , mercadería entregada en YPF Villa General Belgrano, _x000a_Córdoba._x000a__x000a_Plazo de 35 días pactado,  no cumplido nuevamente._x000a__x000a_Por favor informar cómo gestionamos el cobro urgente de la misma._x000a__x000a_Gracias_x000a_Saludos_x000a_Damian Delay_x000a_Norte Repuestos_x000a_Norwan Group"/>
-    <x v="2"/>
+    <x v="4"/>
     <x v="0"/>
   </r>
   <r>
@@ -3456,80 +3667,75 @@
   <r>
     <s v="Pedido de devolución de retenciones IIBB CABA TAUSA SA 30-70807963-0"/>
     <s v="Estimadas/os_x000a_Buenas tardes _x000a_Me comunico por una retención indebida de IIBB CABA., la cual adjunto con nota_x000a_solicitando devolución. _x000a__x000a__x000a_Aguardo sus comentarios ._x000a__x000a__x000a_--_x000a__x000a_Saludos_x000a_Alejandra Escudero_x000a_[https://docs.google.com/uc?export=download&amp;amp;id=0BzALpQ867DywdHBoaUdBWlpGN2M&amp;amp;revid=0BzALpQ867DywRnYxTlZMblpwQTR3NHZmc01YRUJFYStZRlBzPQ]_x000a_Conquistadores del desierto 3510 - PINO_x000a_Neuquén Capital_x000a_T.E: 0299-4692847"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="A-EVANGELISTA - Solicitud de orden de pago HEMPEL ARGENTINA SRL"/>
+    <s v="Hempel Internal Document_x000a__x000a__x000a__x000a_ _x000a__x000a_Estimado cliente buenas tardes,_x000a__x000a_ _x000a__x000a_Gusto en saludarlo. Por favor su ayuda con la orden de pago y retención del_x000a_abono realizado el 15-01-25 por A-EVANGELISTA. por el valor de $578.260,94 (En_x000a_el caso de que existan multas, se agradecerá la ND)_x000a__x000a_Nuestro CUIT 30-68081957-9 . Muchas gracias!_x000a__x000a_ _x000a__x000a_[cid:image001.png@01DB676D.81ED4B70]_x000a__x000a_ _x000a__x000a_Romina Speerli_x000a__x000a_Senior Credit Controller_x000a__x000a_[cid:image002.png@01DB676D.81ED4B70]_x000a__x000a_Hempel Argentina S.R.L._x000a__x000a_Calle 7 Nro. 79_x000a__x000a_Pilar_x000a__x000a_B1629MXA_x000a__x000a_AR_x000a__x000a_hempel.com [https://www.hempel.com]_x000a__x000a_ _x000a__x000a__x000a_Sensitivity: Internal_x000a_"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Pedido de devolución de retenciones - 30-50085213-1 Air Liquide Argentina S.A."/>
+    <s v="Estimados, buenas tardes._x000a__x000a__x000a_Envío actualización para el caso CAP-518913-P0B5Q5, ya que se reclama la_x000a_devolución de un segundo comprobante, y se corrige la fecha de los comprobantes_x000a_de retención en la nota adjunta._x000a__x000a__x000a_Saludos._x000a__x000a__x000a_--_x000a__x000a__x000a__x000a_Federico Germán Crudelli_x000a__x000a_Americas BSC - Collections Analyst_x000a_Buenos Aires - Argentina_x000a_+54 9 11 3294-8475_x000a_federicogerman.crudelli@airliquide.com_x000a_"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Solicitud de Retenciones - Win and Winnow SRL"/>
+    <s v="Buenas tardes, esperamos que este mail los encuentre bien._x000a_ _x000a_Nos comunicamos del Departamento de Finanzas de Win and Winnow SRL._x000a_ _x000a_Queríamos por favor solicitar el detalle de Retenciones del Pago que recibimos_x000a_el 15 de Enero por 4.765,05 ARS._x000a_ _x000a_Muchas gracias._x000a_ _x000a_Saludos,_x000a_ _x000a_ _x000a_Accounts Receivables Team"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="SOLICITUD DE NOTIFICACIÓN AL PROVEEDOR"/>
+    <s v="Documento: YPF-Privado_x000a__x000a__x000a__x000a_Buenas tardes. Por favor informar al proveedor que para evitar errores de_x000a_retención de IIBB debe indicar en el cuerpo de la factura la base de retención_x000a_que corresponde a cada provincia. Gracias._x000a__x000a_ _x000a__x000a_Saludos._x000a__x000a_ _x000a__x000a_ _x000a__x000a_[cid:image001.png@01DB6770.437F83F0]_x000a__x000a_Walter Eduardo Higa_x000a__x000a_Coordinador Registración Egresos_x000a__x000a_Macacha Güemes 515_x000a__x000a_Ciudad Autónoma de Buenos Aires_x000a__x000a_Tel: +54 11 5441 0709_x000a__x000a_ _x000a__x000a_ _x000a__x000a_AVISO LEGAL: Esta información es privada y confidencial y está dirigida_x000a_únicamente a su destinatario. Si usted no es el destinatario original de este_x000a_mensaje y por este medio pudo acceder a dicha información se le pide gentilmente_x000a_que elimine el presente mensaje. La distribución o copia de este mensaje está_x000a_estrictamente prohibida. Esta comunicación es sólo para propósitos de_x000a_información y no debe ser considerada como una propuesta, aceptación ni como una_x000a_declaración de voluntad de parte del personal de YPF S.A. La transmisión de_x000a_mensajes por medio del servicio de mensajería electrónica corporativa no está_x000a_exenta de errores. Por consiguiente, no manifestamos que esta información sea_x000a_completa o precisa. Toda información está sujeta a alterarse sin previo aviso._x000a_Ante cualquier incumplimiento al Código de Ética y Conducta de YPF, políticas_x000a_corporativas asociadas y/o la ley se encuentra disponible la Línea Ética_x000a_Telefónica: 0800 – 444 – 7722 y la Línea Ética WEB www.lineadedenuncias.com.ar_x000a_en www.ypf.com ._x000a__x000a__x000a_Documento: YPF-Privado_x000a_"/>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Saliente YPF"/>
+    <s v="Me encontraré fuera de la oficina por licencia del 03/01 al 19/01._x000a__x000a_ _x000a__x000a_ "/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="RE: FACTURA PENDIENTE YPF-CAP:0555001488"/>
+    <s v="Buenas Tardes._x000a_Perdon que insista con esta consulta pero nadie se ha comunicado con nosotros ni_x000a_hemos tenido respuesta a la inquietud de la factura pendiente .CAP-511385-C3G5J1_x000a__x000a__x000a_Espero su comentario._x000a__x000a__x000a_Muchas gracias_x000a_Sds_x000a__x000a__x000a_Luciano Lacava_x000a_Identidad srl_x000a_30-71113160-0_x000a__x000a__x000a__x000a__x000a_--------------------------------------------------------------------------------_x000a__x000a_De: Facturación YPF &lt;facturacion@proveedoresypf.com&gt;_x000a_Enviado: lunes, 30 de diciembre de 2024 09:49_x000a_Para: Luciano Lacava &lt;identidad-servicios@hotmail.com&gt;_x000a_Asunto: RE: FACTURA PENDIENTE YPF-CAP:0555001488_x000a_ _x000a_Estimados,_x000a_ _x000a_Hemos visualizado que el CAP-511385-C3G5J1 aún se encuentra en manos del grupo_x000a_de resolución, hemos dejado asentado un reclamo en el por el reclamo del día de_x000a_hoy._x000a_ _x000a_Seguiremos insistiendo al grupo de resolución por una respuesta._x000a_ _x000a_ _x000a_Saludos,_x000a_CENTRO DE ATENCIÓN A PROVEEDORES YPF_x000a_ _x000a_[cid:image.png@6354a7c88a18850aa30c18e.6354a7c88]_x000a_Atención telefónica: 0810 122 9681 Opción 1  - Lun a vie de 9 a 18 horas_x000a_Extranet: https://portalsap.ypf.com/_x000a_Presentación de facturas: recepciondefacturas@ypf.com_x000a_ _x000a_[cid:image.png@cf24c0296af09fe0f9e2c69.cf24c0296]_x000a_ _x000a_INFORMACIÓN IMPORTANTE_x000a_ESTE BUZÓN NO ES DE RECEPCIÓN DE FACTURAS (por favor no nos ponga en copia en_x000a_sus presentaciones) _x000a_-  Buzón de Presentación de facturas: recepciondefacturas@ypf.com (No aplica_x000a_para las sociedades del grupo YPF Luz)_x000a_-  Extranet de Proveedores: https://portalsap.ypf.com/ (Si su mail no está_x000a_registrado,  pida el alta a Facturacion@proveedoresypf.com )_x000a_-  Formatos de presentación y más información_x000a_en https://proveedores.ypf.com/Pago-a-proveedores-preguntas-frecuentes.html_x000a_-  Legajos_x000a_impositivos: https://proveedores.ypf.com/certificados-e-informacion-impositiva.html_x000a_------------------- Mensaje original -------------------_x000a_De: Luciano Lacava &lt;identidad-servicios@hotmail.com&gt;;_x000a_Recibido: Fri Dec 27 2024 17:06:16 GMT-0300 (hora estándar de Argentina)_x000a_Para: facturacion@proveedoresypf.com facturacion@proveedoresypf.com_x000a_&lt;facturacion@proveedoresypf.com&gt;; facturacion@proveedoresypf.com_x000a_&lt;facturacion@proveedoresypf.com&gt;; Facturacion &lt;facturacion@proveedoresypf.com&gt;;_x000a_Asunto: FACTURA PENDIENTE_x000a__x000a__x000a_Buenas tardes estimado._x000a_En referencia al caso  CAP-511385-C3G5J1 . No hemos tenido respuesta aun._x000a_ _x000a_Identidad srl _x000a_30-71113160-0_x000a_ _x000a_Facturado a YPF SA_x000a_ _x000a_Saludos._x000a_ _x000a_AVISO LEGAL: Este mensaje y cualquier archivo anexo al mismo son privados y_x000a_confidenciales y está dirigido únicamente a su destinatario. Si usted no es el_x000a_destinatario original de este mensaje y por este medio pudo acceder a dicha_x000a_información por favor elimine el mismo. La distribución o copia de este mensaje_x000a_está estrictamente prohibida. Esta comunicación es sólo para propósitos de_x000a_información y no debe ser considerada como propuesta, aceptación, tratativas_x000a_contractuales, contrato preliminar ni como una declaración de voluntad oficial_x000a_por parte de YPF y/o subsidiarias y/o afiliadas y no genera responsabilidad_x000a_precontractual ni contractual alguna por su contenido y/o sus adjuntos. La_x000a_transmisión de estos mensajes a través de mensajería corporativa no garantiza_x000a_que el correo electrónico sea seguro o libre de error. Por consiguiente, no_x000a_manifestamos que esta información sea completa o precisa. Toda información está_x000a_sujeta a alterarse sin previo aviso. LEGAL NOTICE: The contents of this message_x000a_and any attachments are private and confidential and are intended for the_x000a_recipient only. If you are not the intended recipient of this message and_x000a_through this message you had access to this information, please delete it. The_x000a_distribution or copying of this message is strictly prohibited. This_x000a_communication is for information purposes only. It shall not be regarded as a_x000a_proposal, acceptance, contract negotiation, preliminary contract or official_x000a_statement of will by YPF and/or its subsidiaries and/or affiliates, and shall_x000a_not create any precontractual or contractual liability whatsoever with regard to_x000a_its contents and/or attachments. Email transmission cannot be guaranteed to be_x000a_secure or error-free. Therefore, we do not represent that this information is_x000a_complete or accurate. All information is subject to change without prior notice."/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Pedido de Devolución de Retenciones - 02-01-2025"/>
+    <s v="Referencia:_x000a__x000a_ _x000a__x000a_ * 30546689979 - YPF S.A._x000a__x000a_ _x000a__x000a_Estimados,_x000a__x000a_ _x000a__x000a_Adjuntamos:_x000a__x000a_ _x000a__x000a_ _x000a__x000a_ * Nota de Pedido de Devolución de Retenciones - 30504536706 CONTRERAS HERMANOS_x000a_   S A I C I F A G Y M –_x000a__x000a_ _x000a__x000a_ "/>
     <x v="2"/>
     <x v="1"/>
-  </r>
-  <r>
-    <s v="A-EVANGELISTA - Solicitud de orden de pago HEMPEL ARGENTINA SRL"/>
-    <s v="Hempel Internal Document_x000a__x000a__x000a__x000a_ _x000a__x000a_Estimado cliente buenas tardes,_x000a__x000a_ _x000a__x000a_Gusto en saludarlo. Por favor su ayuda con la orden de pago y retención del_x000a_abono realizado el 15-01-25 por A-EVANGELISTA. por el valor de $578.260,94 (En_x000a_el caso de que existan multas, se agradecerá la ND)_x000a__x000a_Nuestro CUIT 30-68081957-9 . Muchas gracias!_x000a__x000a_ _x000a__x000a_[cid:image001.png@01DB676D.81ED4B70]_x000a__x000a_ _x000a__x000a_Romina Speerli_x000a__x000a_Senior Credit Controller_x000a__x000a_[cid:image002.png@01DB676D.81ED4B70]_x000a__x000a_Hempel Argentina S.R.L._x000a__x000a_Calle 7 Nro. 79_x000a__x000a_Pilar_x000a__x000a_B1629MXA_x000a__x000a_AR_x000a__x000a_hempel.com [https://www.hempel.com]_x000a__x000a_ _x000a__x000a__x000a_Sensitivity: Internal_x000a_"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Pedido de devolución de retenciones - 30-50085213-1 Air Liquide Argentina S.A."/>
-    <s v="Estimados, buenas tardes._x000a__x000a__x000a_Envío actualización para el caso CAP-518913-P0B5Q5, ya que se reclama la_x000a_devolución de un segundo comprobante, y se corrige la fecha de los comprobantes_x000a_de retención en la nota adjunta._x000a__x000a__x000a_Saludos._x000a__x000a__x000a_--_x000a__x000a__x000a__x000a_Federico Germán Crudelli_x000a__x000a_Americas BSC - Collections Analyst_x000a_Buenos Aires - Argentina_x000a_+54 9 11 3294-8475_x000a_federicogerman.crudelli@airliquide.com_x000a_"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Solicitud de Retenciones - Win and Winnow SRL"/>
-    <s v="Buenas tardes, esperamos que este mail los encuentre bien._x000a_ _x000a_Nos comunicamos del Departamento de Finanzas de Win and Winnow SRL._x000a_ _x000a_Queríamos por favor solicitar el detalle de Retenciones del Pago que recibimos_x000a_el 15 de Enero por 4.765,05 ARS._x000a_ _x000a_Muchas gracias._x000a_ _x000a_Saludos,_x000a_ _x000a_ _x000a_Accounts Receivables Team"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="SOLICITUD DE NOTIFICACIÓN AL PROVEEDOR"/>
-    <s v="Documento: YPF-Privado_x000a__x000a__x000a__x000a_Buenas tardes. Por favor informar al proveedor que para evitar errores de_x000a_retención de IIBB debe indicar en el cuerpo de la factura la base de retención_x000a_que corresponde a cada provincia. Gracias._x000a__x000a_ _x000a__x000a_Saludos._x000a__x000a_ _x000a__x000a_ _x000a__x000a_[cid:image001.png@01DB6770.437F83F0]_x000a__x000a_Walter Eduardo Higa_x000a__x000a_Coordinador Registración Egresos_x000a__x000a_Macacha Güemes 515_x000a__x000a_Ciudad Autónoma de Buenos Aires_x000a__x000a_Tel: +54 11 5441 0709_x000a__x000a_ _x000a__x000a_ _x000a__x000a_AVISO LEGAL: Esta información es privada y confidencial y está dirigida_x000a_únicamente a su destinatario. Si usted no es el destinatario original de este_x000a_mensaje y por este medio pudo acceder a dicha información se le pide gentilmente_x000a_que elimine el presente mensaje. La distribución o copia de este mensaje está_x000a_estrictamente prohibida. Esta comunicación es sólo para propósitos de_x000a_información y no debe ser considerada como una propuesta, aceptación ni como una_x000a_declaración de voluntad de parte del personal de YPF S.A. La transmisión de_x000a_mensajes por medio del servicio de mensajería electrónica corporativa no está_x000a_exenta de errores. Por consiguiente, no manifestamos que esta información sea_x000a_completa o precisa. Toda información está sujeta a alterarse sin previo aviso._x000a_Ante cualquier incumplimiento al Código de Ética y Conducta de YPF, políticas_x000a_corporativas asociadas y/o la ley se encuentra disponible la Línea Ética_x000a_Telefónica: 0800 – 444 – 7722 y la Línea Ética WEB www.lineadedenuncias.com.ar_x000a_en www.ypf.com ._x000a__x000a__x000a_Documento: YPF-Privado_x000a_"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Saliente YPF"/>
-    <s v="Me encontraré fuera de la oficina por licencia del 03/01 al 19/01._x000a__x000a_ _x000a__x000a_ "/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="RE: FACTURA PENDIENTE YPF-CAP:0555001488"/>
-    <s v="Buenas Tardes._x000a_Perdon que insista con esta consulta pero nadie se ha comunicado con nosotros ni_x000a_hemos tenido respuesta a la inquietud de la factura pendiente .CAP-511385-C3G5J1_x000a__x000a__x000a_Espero su comentario._x000a__x000a__x000a_Muchas gracias_x000a_Sds_x000a__x000a__x000a_Luciano Lacava_x000a_Identidad srl_x000a_30-71113160-0_x000a__x000a__x000a__x000a__x000a_--------------------------------------------------------------------------------_x000a__x000a_De: Facturación YPF &lt;facturacion@proveedoresypf.com&gt;_x000a_Enviado: lunes, 30 de diciembre de 2024 09:49_x000a_Para: Luciano Lacava &lt;identidad-servicios@hotmail.com&gt;_x000a_Asunto: RE: FACTURA PENDIENTE YPF-CAP:0555001488_x000a_ _x000a_Estimados,_x000a_ _x000a_Hemos visualizado que el CAP-511385-C3G5J1 aún se encuentra en manos del grupo_x000a_de resolución, hemos dejado asentado un reclamo en el por el reclamo del día de_x000a_hoy._x000a_ _x000a_Seguiremos insistiendo al grupo de resolución por una respuesta._x000a_ _x000a_ _x000a_Saludos,_x000a_CENTRO DE ATENCIÓN A PROVEEDORES YPF_x000a_ _x000a_[cid:image.png@6354a7c88a18850aa30c18e.6354a7c88]_x000a_Atención telefónica: 0810 122 9681 Opción 1  - Lun a vie de 9 a 18 horas_x000a_Extranet: https://portalsap.ypf.com/_x000a_Presentación de facturas: recepciondefacturas@ypf.com_x000a_ _x000a_[cid:image.png@cf24c0296af09fe0f9e2c69.cf24c0296]_x000a_ _x000a_INFORMACIÓN IMPORTANTE_x000a_ESTE BUZÓN NO ES DE RECEPCIÓN DE FACTURAS (por favor no nos ponga en copia en_x000a_sus presentaciones) _x000a_-  Buzón de Presentación de facturas: recepciondefacturas@ypf.com (No aplica_x000a_para las sociedades del grupo YPF Luz)_x000a_-  Extranet de Proveedores: https://portalsap.ypf.com/ (Si su mail no está_x000a_registrado,  pida el alta a Facturacion@proveedoresypf.com )_x000a_-  Formatos de presentación y más información_x000a_en https://proveedores.ypf.com/Pago-a-proveedores-preguntas-frecuentes.html_x000a_-  Legajos_x000a_impositivos: https://proveedores.ypf.com/certificados-e-informacion-impositiva.html_x000a_------------------- Mensaje original -------------------_x000a_De: Luciano Lacava &lt;identidad-servicios@hotmail.com&gt;;_x000a_Recibido: Fri Dec 27 2024 17:06:16 GMT-0300 (hora estándar de Argentina)_x000a_Para: facturacion@proveedoresypf.com facturacion@proveedoresypf.com_x000a_&lt;facturacion@proveedoresypf.com&gt;; facturacion@proveedoresypf.com_x000a_&lt;facturacion@proveedoresypf.com&gt;; Facturacion &lt;facturacion@proveedoresypf.com&gt;;_x000a_Asunto: FACTURA PENDIENTE_x000a__x000a__x000a_Buenas tardes estimado._x000a_En referencia al caso  CAP-511385-C3G5J1 . No hemos tenido respuesta aun._x000a_ _x000a_Identidad srl _x000a_30-71113160-0_x000a_ _x000a_Facturado a YPF SA_x000a_ _x000a_Saludos._x000a_ _x000a_AVISO LEGAL: Este mensaje y cualquier archivo anexo al mismo son privados y_x000a_confidenciales y está dirigido únicamente a su destinatario. Si usted no es el_x000a_destinatario original de este mensaje y por este medio pudo acceder a dicha_x000a_información por favor elimine el mismo. La distribución o copia de este mensaje_x000a_está estrictamente prohibida. Esta comunicación es sólo para propósitos de_x000a_información y no debe ser considerada como propuesta, aceptación, tratativas_x000a_contractuales, contrato preliminar ni como una declaración de voluntad oficial_x000a_por parte de YPF y/o subsidiarias y/o afiliadas y no genera responsabilidad_x000a_precontractual ni contractual alguna por su contenido y/o sus adjuntos. La_x000a_transmisión de estos mensajes a través de mensajería corporativa no garantiza_x000a_que el correo electrónico sea seguro o libre de error. Por consiguiente, no_x000a_manifestamos que esta información sea completa o precisa. Toda información está_x000a_sujeta a alterarse sin previo aviso. LEGAL NOTICE: The contents of this message_x000a_and any attachments are private and confidential and are intended for the_x000a_recipient only. If you are not the intended recipient of this message and_x000a_through this message you had access to this information, please delete it. The_x000a_distribution or copying of this message is strictly prohibited. This_x000a_communication is for information purposes only. It shall not be regarded as a_x000a_proposal, acceptance, contract negotiation, preliminary contract or official_x000a_statement of will by YPF and/or its subsidiaries and/or affiliates, and shall_x000a_not create any precontractual or contractual liability whatsoever with regard to_x000a_its contents and/or attachments. Email transmission cannot be guaranteed to be_x000a_secure or error-free. Therefore, we do not represent that this information is_x000a_complete or accurate. All information is subject to change without prior notice."/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Pedido de devolución de retenciones - CUIT : 30717859177 BRILLOLUX DE TRES ARROYOS S.R.L"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Pedido de Devolución de Retenciones - 02-01-2025"/>
-    <s v="Referencia:_x000a__x000a_ _x000a__x000a_ * 30546689979 - YPF S.A._x000a__x000a_ _x000a__x000a_Estimados,_x000a__x000a_ _x000a__x000a_Adjuntamos:_x000a__x000a_ _x000a__x000a_ _x000a__x000a_ * Nota de Pedido de Devolución de Retenciones - 30504536706 CONTRERAS HERMANOS_x000a_   S A I C I F A G Y M –_x000a__x000a_ _x000a__x000a_ "/>
-    <x v="1"/>
-    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="TablaDinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G16" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="15">
+      <items count="16">
         <item x="7"/>
+        <item m="1" x="13"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item m="1" x="11"/>
+        <item m="1" x="14"/>
+        <item x="0"/>
+        <item x="2"/>
         <item m="1" x="12"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item m="1" x="13"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item m="1" x="11"/>
         <item x="1"/>
         <item x="5"/>
+        <item x="8"/>
         <item x="9"/>
         <item m="1" x="10"/>
         <item t="default"/>
@@ -3561,9 +3767,6 @@
       <x v="4"/>
     </i>
     <i>
-      <x v="5"/>
-    </i>
-    <i>
       <x v="7"/>
     </i>
     <i>
@@ -3577,6 +3780,9 @@
     </i>
     <i>
       <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
     </i>
     <i t="grand">
       <x/>
@@ -3906,10 +4112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3920,7 +4126,7 @@
     <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3934,7 +4140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3948,7 +4154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3962,7 +4168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -3973,15 +4179,15 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -3990,49 +4196,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -4046,7 +4255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -4054,13 +4263,13 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -4074,7 +4283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -4088,7 +4297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -4102,7 +4311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -4116,7 +4325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -4124,41 +4333,44 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -4166,13 +4378,13 @@
         <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -4180,13 +4392,13 @@
         <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -4200,7 +4412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -4208,13 +4420,13 @@
         <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -4222,13 +4434,13 @@
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>53</v>
       </c>
@@ -4236,13 +4448,13 @@
         <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -4250,13 +4462,16 @@
         <v>56</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>57</v>
       </c>
@@ -4264,13 +4479,13 @@
         <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -4284,7 +4499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -4298,7 +4513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>63</v>
       </c>
@@ -4306,60 +4521,60 @@
         <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
         <v>65</v>
       </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>41</v>
-      </c>
       <c r="D30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -4368,12 +4583,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
         <v>10</v>
@@ -4382,12 +4597,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" t="s">
         <v>75</v>
-      </c>
-      <c r="B34" t="s">
-        <v>74</v>
       </c>
       <c r="C34" t="s">
         <v>10</v>
@@ -4396,40 +4611,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
         <v>10</v>
@@ -4438,49 +4653,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
         <v>13</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" t="s">
-        <v>88</v>
-      </c>
       <c r="D40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -4488,13 +4706,13 @@
         <v>90</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>91</v>
       </c>
@@ -4508,7 +4726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>93</v>
       </c>
@@ -4519,10 +4737,10 @@
         <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>96</v>
       </c>
@@ -4530,13 +4748,13 @@
         <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -4544,13 +4762,13 @@
         <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>99</v>
       </c>
@@ -4558,13 +4776,13 @@
         <v>100</v>
       </c>
       <c r="C46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>101</v>
       </c>
@@ -4578,7 +4796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -4586,10 +4804,13 @@
         <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>7</v>
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4614,10 +4835,10 @@
         <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4656,7 +4877,7 @@
         <v>114</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -4670,10 +4891,10 @@
         <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4684,7 +4905,7 @@
         <v>118</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -4698,7 +4919,7 @@
         <v>120</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -4712,7 +4933,7 @@
         <v>122</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
         <v>7</v>
@@ -4726,7 +4947,7 @@
         <v>124</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
         <v>7</v>
@@ -4740,7 +4961,7 @@
         <v>126</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -4768,10 +4989,10 @@
         <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4782,10 +5003,10 @@
         <v>132</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4796,10 +5017,10 @@
         <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4810,10 +5031,10 @@
         <v>136</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4824,49 +5045,52 @@
         <v>138</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4877,15 +5101,128 @@
         <v>145</v>
       </c>
       <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" t="s">
         <v>10</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
+      <c r="D70" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" t="s">
+        <v>155</v>
+      </c>
+      <c r="C75" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>156</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>158</v>
+      </c>
+      <c r="B77" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D69" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D77" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4894,7 +5231,7 @@
   <dimension ref="A3:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4912,270 +5249,272 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C5" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>1.4705882352941176E-2</v>
-      </c>
-      <c r="F6">
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="F6" s="6">
         <v>1</v>
       </c>
       <c r="G6" s="5">
-        <v>1.4705882352941176E-2</v>
+        <v>1.4925373134328358E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="5">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>1.4705882352941176E-2</v>
-      </c>
-      <c r="F7">
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="F7" s="6">
         <v>1</v>
       </c>
       <c r="G7" s="5">
-        <v>1.4705882352941176E-2</v>
+        <v>1.4925373134328358E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
+        <v>39</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2</v>
       </c>
       <c r="C8" s="5">
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
+        <v>2.9850746268656716E-2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>14</v>
       </c>
       <c r="E8" s="5">
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
+        <v>0.20895522388059701</v>
+      </c>
+      <c r="F8" s="6">
+        <v>16</v>
       </c>
       <c r="G8" s="5">
-        <v>0.29411764705882354</v>
+        <v>0.23880597014925373</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B9" s="6"/>
       <c r="C9" s="5">
-        <v>1.4705882352941176E-2</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>7</v>
       </c>
       <c r="E9" s="5">
-        <v>0.11764705882352941</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="F9" s="6">
+        <v>7</v>
       </c>
       <c r="G9" s="5">
-        <v>0.13235294117647059</v>
+        <v>0.1044776119402985</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="5">
-        <v>1.4705882352941176E-2</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>18</v>
       </c>
       <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
+        <v>0.26865671641791045</v>
+      </c>
+      <c r="F10" s="6">
+        <v>18</v>
       </c>
       <c r="G10" s="5">
-        <v>1.4705882352941176E-2</v>
+        <v>0.26865671641791045</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="6">
+        <v>5</v>
       </c>
       <c r="C11" s="5">
-        <v>1.4705882352941176E-2</v>
-      </c>
-      <c r="D11">
-        <v>18</v>
+        <v>7.4626865671641784E-2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7</v>
       </c>
       <c r="E11" s="5">
-        <v>0.26470588235294118</v>
-      </c>
-      <c r="F11">
-        <v>19</v>
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="F11" s="6">
+        <v>12</v>
       </c>
       <c r="G11" s="5">
-        <v>0.27941176470588236</v>
+        <v>0.17910447761194029</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
       <c r="C12" s="5">
         <v>0</v>
       </c>
-      <c r="D12">
-        <v>3</v>
+      <c r="D12" s="6">
+        <v>7</v>
       </c>
       <c r="E12" s="5">
-        <v>4.4117647058823532E-2</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
+        <v>0.1044776119402985</v>
+      </c>
+      <c r="F12" s="6">
+        <v>7</v>
       </c>
       <c r="G12" s="5">
-        <v>4.4117647058823532E-2</v>
+        <v>0.1044776119402985</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="B13" s="6"/>
       <c r="C13" s="5">
         <v>0</v>
       </c>
-      <c r="D13">
-        <v>6</v>
+      <c r="D13" s="6">
+        <v>3</v>
       </c>
       <c r="E13" s="5">
-        <v>8.8235294117647065E-2</v>
-      </c>
-      <c r="F13">
-        <v>6</v>
+        <v>4.4776119402985072E-2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>3</v>
       </c>
       <c r="G13" s="5">
-        <v>8.8235294117647065E-2</v>
+        <v>4.4776119402985072E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
+        <v>95</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
       </c>
       <c r="C14" s="5">
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="D14" s="6"/>
       <c r="E14" s="5">
-        <v>4.4117647058823532E-2</v>
-      </c>
-      <c r="F14">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
       </c>
       <c r="G14" s="5">
-        <v>0.10294117647058823</v>
+        <v>1.4925373134328358E-2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15">
+        <v>139</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
         <v>1</v>
       </c>
-      <c r="C15" s="5">
-        <v>1.4705882352941176E-2</v>
-      </c>
       <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15">
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="F15" s="6">
         <v>1</v>
       </c>
       <c r="G15" s="5">
-        <v>1.4705882352941176E-2</v>
+        <v>1.4925373134328358E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B16">
-        <v>16</v>
+        <v>166</v>
+      </c>
+      <c r="B16" s="6">
+        <v>8</v>
       </c>
       <c r="C16" s="5">
-        <v>0.23529411764705882</v>
-      </c>
-      <c r="D16">
-        <v>52</v>
+        <v>0.11940298507462686</v>
+      </c>
+      <c r="D16" s="6">
+        <v>59</v>
       </c>
       <c r="E16" s="5">
-        <v>0.76470588235294112</v>
-      </c>
-      <c r="F16">
-        <v>68</v>
+        <v>0.88059701492537312</v>
+      </c>
+      <c r="F16" s="6">
+        <v>67</v>
       </c>
       <c r="G16" s="5">
         <v>1</v>
